--- a/reports/vulnerability/Base_Set_Up/trade_analysis_Defaults.xlsx
+++ b/reports/vulnerability/Base_Set_Up/trade_analysis_Defaults.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rzemi\OneDrive\Desktop\Back Testing Framework\reports\vulnerability\Base_Set_Up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BDCEA8-A446-444E-BC7D-73CBD2088643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D62FBC8-8832-4552-BE1A-0E882C69525A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{4D5898AF-4962-497E-A36F-2A39431ABAB7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4D5898AF-4962-497E-A36F-2A39431ABAB7}"/>
   </bookViews>
   <sheets>
     <sheet name="trade_analysis_Defaults" sheetId="1" r:id="rId1"/>
-    <sheet name="Benefit_Cat" sheetId="2" r:id="rId2"/>
-    <sheet name="Parameters" sheetId="3" r:id="rId3"/>
+    <sheet name="Rejected_Signals" sheetId="4" r:id="rId2"/>
+    <sheet name="Benefit_Cat" sheetId="2" r:id="rId3"/>
+    <sheet name="Parameters" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="681">
   <si>
     <t>Trade ID</t>
   </si>
@@ -2032,6 +2033,42 @@
   </si>
   <si>
     <t>P/L Momentum (14D)</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Rejected Signal</t>
+  </si>
+  <si>
+    <t>Signal P/L ($)</t>
+  </si>
+  <si>
+    <t>Kept Position</t>
+  </si>
+  <si>
+    <t>Kept P/L ($)</t>
+  </si>
+  <si>
+    <t>Opportunity Cost ($)</t>
+  </si>
+  <si>
+    <t>Weakest Score</t>
+  </si>
+  <si>
+    <t>Threshold</t>
+  </si>
+  <si>
+    <t>Score Gap</t>
+  </si>
+  <si>
+    <t>Decision Quality</t>
+  </si>
+  <si>
+    <t>MISSED OPPORTUNITY</t>
+  </si>
+  <si>
+    <t>GOOD REJECTION</t>
   </si>
 </sst>
 </file>
@@ -2567,7 +2604,10 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -13221,9 +13261,9 @@
     <tableColumn id="5" xr3:uid="{F030AFC8-D3E4-4E99-B1AB-78235C11D749}" name="P/L Difference ($)"/>
     <tableColumn id="6" xr3:uid="{C6B65033-CD1B-4AD1-90B9-ACFD98AA5A9B}" name="Benefit Category"/>
     <tableColumn id="7" xr3:uid="{7A11DB34-DDAE-4E1A-BA91-9AFDD7C13480}" name="Would Have Been Swapped"/>
-    <tableColumn id="8" xr3:uid="{3D38FC70-99C9-4D81-B0AC-AF7A3183FB6D}" name="Entry Date" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{901C5094-AED8-4FA1-8E9A-A9CDED565B31}" name="Natural Exit Date" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{58A5DF5B-A51F-4C3C-9EF1-A21193B4E119}" name="Vuln Exit Date" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{3D38FC70-99C9-4D81-B0AC-AF7A3183FB6D}" name="Entry Date" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{901C5094-AED8-4FA1-8E9A-A9CDED565B31}" name="Natural Exit Date" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{58A5DF5B-A51F-4C3C-9EF1-A21193B4E119}" name="Vuln Exit Date" dataDxfId="1"/>
     <tableColumn id="11" xr3:uid="{406F6A2F-5538-41F3-933C-D831A72473BD}" name="Entry Price"/>
     <tableColumn id="12" xr3:uid="{F7813E69-60D8-4645-8895-D2C5AB78ABBA}" name="Natural Exit Price"/>
     <tableColumn id="13" xr3:uid="{63825CFA-7FA6-4701-BB71-E211F016B7B4}" name="Vuln Exit Price"/>
@@ -13233,6 +13273,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5E04ED43-94D7-48D2-835F-825230EA0DE0}" name="Table3" displayName="Table3" ref="A1:J194" totalsRowShown="0">
+  <autoFilter ref="A1:J194" xr:uid="{5E04ED43-94D7-48D2-835F-825230EA0DE0}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{585D450F-384E-460C-BB44-6C47152A3904}" name="Date" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{6888B03D-30BB-4A14-81BA-8AB92B86A8B4}" name="Rejected Signal"/>
+    <tableColumn id="3" xr3:uid="{89A95D2E-5C9E-4042-88E6-0348D2E4F859}" name="Signal P/L ($)"/>
+    <tableColumn id="4" xr3:uid="{456BF581-7FEE-470F-93DB-18823F111770}" name="Kept Position"/>
+    <tableColumn id="5" xr3:uid="{B42D5361-0E02-4F62-BEFD-BF9665F51176}" name="Kept P/L ($)"/>
+    <tableColumn id="6" xr3:uid="{E6BC2551-7593-4C5C-9C79-8B0B75B0F6C1}" name="Opportunity Cost ($)"/>
+    <tableColumn id="7" xr3:uid="{B8E776A7-4C54-4B42-9C39-8997094047E6}" name="Weakest Score"/>
+    <tableColumn id="8" xr3:uid="{102A8C06-A6FD-405E-9F78-D9D71D525A3D}" name="Threshold"/>
+    <tableColumn id="9" xr3:uid="{8434410C-0F90-4C82-ADDF-31C5E7928DAA}" name="Score Gap"/>
+    <tableColumn id="10" xr3:uid="{F4BC6EF5-E3B5-425E-B090-464B70483EAA}" name="Decision Quality"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBA5C823-E0F5-4496-BD48-A783B3C4212A}" name="Table2" displayName="Table2" ref="B2:D9" totalsRowShown="0">
   <autoFilter ref="B2:D9" xr:uid="{CBA5C823-E0F5-4496-BD48-A783B3C4212A}"/>
   <tableColumns count="3">
@@ -13563,8 +13622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D6865F-36B3-4FE2-A478-275D81ACE9DF}">
   <dimension ref="A1:M603"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A567" workbookViewId="0">
+      <selection activeCell="E576" sqref="E576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37104,6 +37163,6242 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020D8B27-A6CE-4BD9-99CB-7129792721B7}">
+  <dimension ref="A1:J194"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E1" t="s">
+        <v>673</v>
+      </c>
+      <c r="F1" t="s">
+        <v>674</v>
+      </c>
+      <c r="G1" t="s">
+        <v>675</v>
+      </c>
+      <c r="H1" t="s">
+        <v>676</v>
+      </c>
+      <c r="I1" t="s">
+        <v>677</v>
+      </c>
+      <c r="J1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>36061</v>
+      </c>
+      <c r="B2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2">
+        <v>1401.34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E2">
+        <v>-686.4</v>
+      </c>
+      <c r="F2">
+        <v>2087.7399999999998</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>36061</v>
+      </c>
+      <c r="B3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C3">
+        <v>-582.66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E3">
+        <v>-686.4</v>
+      </c>
+      <c r="F3">
+        <v>103.74</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>36062</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>-503.66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E4">
+        <v>-686.4</v>
+      </c>
+      <c r="F4">
+        <v>182.74</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+      <c r="J4" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>36066</v>
+      </c>
+      <c r="B5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5">
+        <v>-592.02</v>
+      </c>
+      <c r="D5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E5">
+        <v>-686.4</v>
+      </c>
+      <c r="F5">
+        <v>94.38</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>36087</v>
+      </c>
+      <c r="B6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C6">
+        <v>-255.05</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6">
+        <v>487.43</v>
+      </c>
+      <c r="F6">
+        <v>-742.47</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>36088</v>
+      </c>
+      <c r="B7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7">
+        <v>2427.14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7">
+        <v>487.43</v>
+      </c>
+      <c r="F7">
+        <v>1939.72</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>36091</v>
+      </c>
+      <c r="B8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8">
+        <v>3836.47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <v>487.43</v>
+      </c>
+      <c r="F8">
+        <v>3349.04</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>36098</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>6382.19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9">
+        <v>487.43</v>
+      </c>
+      <c r="F9">
+        <v>5894.76</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>36101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10">
+        <v>-1597.32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10">
+        <v>487.43</v>
+      </c>
+      <c r="F10">
+        <v>-2084.75</v>
+      </c>
+      <c r="G10">
+        <v>55.93</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <v>5.93</v>
+      </c>
+      <c r="J10" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>36347</v>
+      </c>
+      <c r="B11" t="s">
+        <v>440</v>
+      </c>
+      <c r="C11">
+        <v>-1466.12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E11">
+        <v>155.94</v>
+      </c>
+      <c r="F11">
+        <v>-1622.06</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <v>50</v>
+      </c>
+      <c r="J11" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>36458</v>
+      </c>
+      <c r="B12" t="s">
+        <v>507</v>
+      </c>
+      <c r="C12">
+        <v>3.89</v>
+      </c>
+      <c r="D12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12">
+        <v>244.01</v>
+      </c>
+      <c r="F12">
+        <v>-240.13</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <v>50</v>
+      </c>
+      <c r="J12" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>36469</v>
+      </c>
+      <c r="B13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C13">
+        <v>-575.20000000000005</v>
+      </c>
+      <c r="D13" t="s">
+        <v>243</v>
+      </c>
+      <c r="E13">
+        <v>1202.68</v>
+      </c>
+      <c r="F13">
+        <v>-1777.88</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>50</v>
+      </c>
+      <c r="I13">
+        <v>50</v>
+      </c>
+      <c r="J13" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>36488</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>-1110.6600000000001</v>
+      </c>
+      <c r="D14" t="s">
+        <v>369</v>
+      </c>
+      <c r="E14">
+        <v>2150.4699999999998</v>
+      </c>
+      <c r="F14">
+        <v>-3261.13</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>50</v>
+      </c>
+      <c r="I14">
+        <v>50</v>
+      </c>
+      <c r="J14" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>36531</v>
+      </c>
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15">
+        <v>-587.63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15">
+        <v>-474.82</v>
+      </c>
+      <c r="F15">
+        <v>-112.8</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>50</v>
+      </c>
+      <c r="I15">
+        <v>50</v>
+      </c>
+      <c r="J15" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>36531</v>
+      </c>
+      <c r="B16" t="s">
+        <v>622</v>
+      </c>
+      <c r="C16">
+        <v>1981.66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>171</v>
+      </c>
+      <c r="E16">
+        <v>-474.82</v>
+      </c>
+      <c r="F16">
+        <v>2456.4899999999998</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>50</v>
+      </c>
+      <c r="I16">
+        <v>50</v>
+      </c>
+      <c r="J16" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>36532</v>
+      </c>
+      <c r="B17" t="s">
+        <v>295</v>
+      </c>
+      <c r="C17">
+        <v>1411.92</v>
+      </c>
+      <c r="D17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17">
+        <v>-474.82</v>
+      </c>
+      <c r="F17">
+        <v>1886.75</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>50</v>
+      </c>
+      <c r="I17">
+        <v>50</v>
+      </c>
+      <c r="J17" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>36532</v>
+      </c>
+      <c r="B18" t="s">
+        <v>507</v>
+      </c>
+      <c r="C18">
+        <v>1623.62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18">
+        <v>-474.82</v>
+      </c>
+      <c r="F18">
+        <v>2098.44</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>50</v>
+      </c>
+      <c r="I18">
+        <v>50</v>
+      </c>
+      <c r="J18" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>36535</v>
+      </c>
+      <c r="B19" t="s">
+        <v>440</v>
+      </c>
+      <c r="C19">
+        <v>-1413.06</v>
+      </c>
+      <c r="D19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19">
+        <v>-474.82</v>
+      </c>
+      <c r="F19">
+        <v>-938.23</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>50</v>
+      </c>
+      <c r="I19">
+        <v>50</v>
+      </c>
+      <c r="J19" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>36567</v>
+      </c>
+      <c r="B20" t="s">
+        <v>369</v>
+      </c>
+      <c r="C20">
+        <v>3341.67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E20">
+        <v>-848.21</v>
+      </c>
+      <c r="F20">
+        <v>4189.88</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>50</v>
+      </c>
+      <c r="I20">
+        <v>50</v>
+      </c>
+      <c r="J20" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>36601</v>
+      </c>
+      <c r="B21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21">
+        <v>-300.85000000000002</v>
+      </c>
+      <c r="D21" t="s">
+        <v>440</v>
+      </c>
+      <c r="E21">
+        <v>3516.3</v>
+      </c>
+      <c r="F21">
+        <v>-3817.15</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="H21">
+        <v>50</v>
+      </c>
+      <c r="I21">
+        <v>50</v>
+      </c>
+      <c r="J21" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>36602</v>
+      </c>
+      <c r="B22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22">
+        <v>5198.79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>440</v>
+      </c>
+      <c r="E22">
+        <v>3516.3</v>
+      </c>
+      <c r="F22">
+        <v>1682.49</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>50</v>
+      </c>
+      <c r="I22">
+        <v>50</v>
+      </c>
+      <c r="J22" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>36602</v>
+      </c>
+      <c r="B23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23">
+        <v>516.19000000000005</v>
+      </c>
+      <c r="D23" t="s">
+        <v>440</v>
+      </c>
+      <c r="E23">
+        <v>3516.3</v>
+      </c>
+      <c r="F23">
+        <v>-3000.11</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <v>50</v>
+      </c>
+      <c r="I23">
+        <v>50</v>
+      </c>
+      <c r="J23" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>36605</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24">
+        <v>32.42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>440</v>
+      </c>
+      <c r="E24">
+        <v>3516.3</v>
+      </c>
+      <c r="F24">
+        <v>-3483.89</v>
+      </c>
+      <c r="G24">
+        <v>68.52</v>
+      </c>
+      <c r="H24">
+        <v>50</v>
+      </c>
+      <c r="I24">
+        <v>18.52</v>
+      </c>
+      <c r="J24" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>36612</v>
+      </c>
+      <c r="B25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25">
+        <v>3024.74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>440</v>
+      </c>
+      <c r="E25">
+        <v>3516.3</v>
+      </c>
+      <c r="F25">
+        <v>-491.56</v>
+      </c>
+      <c r="G25">
+        <v>89.31</v>
+      </c>
+      <c r="H25">
+        <v>50</v>
+      </c>
+      <c r="I25">
+        <v>39.31</v>
+      </c>
+      <c r="J25" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>36685</v>
+      </c>
+      <c r="B26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26">
+        <v>-138.74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>622</v>
+      </c>
+      <c r="E26">
+        <v>-1273.7</v>
+      </c>
+      <c r="F26">
+        <v>1134.96</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26">
+        <v>50</v>
+      </c>
+      <c r="I26">
+        <v>50</v>
+      </c>
+      <c r="J26" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>36755</v>
+      </c>
+      <c r="B27" t="s">
+        <v>369</v>
+      </c>
+      <c r="C27">
+        <v>-834.04</v>
+      </c>
+      <c r="D27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27">
+        <v>405.67</v>
+      </c>
+      <c r="F27">
+        <v>-1239.71</v>
+      </c>
+      <c r="G27">
+        <v>67.760000000000005</v>
+      </c>
+      <c r="H27">
+        <v>50</v>
+      </c>
+      <c r="I27">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="J27" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>36831</v>
+      </c>
+      <c r="B28" t="s">
+        <v>440</v>
+      </c>
+      <c r="C28">
+        <v>-1450.4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>472</v>
+      </c>
+      <c r="E28">
+        <v>-654.88</v>
+      </c>
+      <c r="F28">
+        <v>-795.52</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+      <c r="H28">
+        <v>50</v>
+      </c>
+      <c r="I28">
+        <v>50</v>
+      </c>
+      <c r="J28" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>36832</v>
+      </c>
+      <c r="B29" t="s">
+        <v>243</v>
+      </c>
+      <c r="C29">
+        <v>-676.05</v>
+      </c>
+      <c r="D29" t="s">
+        <v>472</v>
+      </c>
+      <c r="E29">
+        <v>-654.88</v>
+      </c>
+      <c r="F29">
+        <v>-21.17</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+      <c r="H29">
+        <v>50</v>
+      </c>
+      <c r="I29">
+        <v>50</v>
+      </c>
+      <c r="J29" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>36839</v>
+      </c>
+      <c r="B30" t="s">
+        <v>280</v>
+      </c>
+      <c r="C30">
+        <v>-823.88</v>
+      </c>
+      <c r="D30" t="s">
+        <v>472</v>
+      </c>
+      <c r="E30">
+        <v>-654.88</v>
+      </c>
+      <c r="F30">
+        <v>-169</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="H30">
+        <v>50</v>
+      </c>
+      <c r="I30">
+        <v>50</v>
+      </c>
+      <c r="J30" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>36881</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31">
+        <v>-590.4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>295</v>
+      </c>
+      <c r="E31">
+        <v>-613.09</v>
+      </c>
+      <c r="F31">
+        <v>22.69</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <v>50</v>
+      </c>
+      <c r="I31">
+        <v>50</v>
+      </c>
+      <c r="J31" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>36887</v>
+      </c>
+      <c r="B32" t="s">
+        <v>622</v>
+      </c>
+      <c r="C32">
+        <v>-541.54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>295</v>
+      </c>
+      <c r="E32">
+        <v>-613.09</v>
+      </c>
+      <c r="F32">
+        <v>71.540000000000006</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32">
+        <v>50</v>
+      </c>
+      <c r="I32">
+        <v>50</v>
+      </c>
+      <c r="J32" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>36928</v>
+      </c>
+      <c r="B33" t="s">
+        <v>589</v>
+      </c>
+      <c r="C33">
+        <v>220.24</v>
+      </c>
+      <c r="D33" t="s">
+        <v>280</v>
+      </c>
+      <c r="E33">
+        <v>-645.04</v>
+      </c>
+      <c r="F33">
+        <v>865.28</v>
+      </c>
+      <c r="G33">
+        <v>100</v>
+      </c>
+      <c r="H33">
+        <v>50</v>
+      </c>
+      <c r="I33">
+        <v>50</v>
+      </c>
+      <c r="J33" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>36992</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34">
+        <v>808.21</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34">
+        <v>727.12</v>
+      </c>
+      <c r="F34">
+        <v>81.09</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>50</v>
+      </c>
+      <c r="I34">
+        <v>50</v>
+      </c>
+      <c r="J34" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>36992</v>
+      </c>
+      <c r="B35" t="s">
+        <v>440</v>
+      </c>
+      <c r="C35">
+        <v>1235.97</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>727.12</v>
+      </c>
+      <c r="F35">
+        <v>508.86</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+      <c r="H35">
+        <v>50</v>
+      </c>
+      <c r="I35">
+        <v>50</v>
+      </c>
+      <c r="J35" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>36992</v>
+      </c>
+      <c r="B36" t="s">
+        <v>589</v>
+      </c>
+      <c r="C36">
+        <v>509.26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36">
+        <v>727.12</v>
+      </c>
+      <c r="F36">
+        <v>-217.86</v>
+      </c>
+      <c r="G36">
+        <v>100</v>
+      </c>
+      <c r="H36">
+        <v>50</v>
+      </c>
+      <c r="I36">
+        <v>50</v>
+      </c>
+      <c r="J36" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36993</v>
+      </c>
+      <c r="B37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37">
+        <v>-820.29</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <v>727.12</v>
+      </c>
+      <c r="F37">
+        <v>-1547.41</v>
+      </c>
+      <c r="G37">
+        <v>100</v>
+      </c>
+      <c r="H37">
+        <v>50</v>
+      </c>
+      <c r="I37">
+        <v>50</v>
+      </c>
+      <c r="J37" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36993</v>
+      </c>
+      <c r="B38" t="s">
+        <v>472</v>
+      </c>
+      <c r="C38">
+        <v>341.57</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <v>727.12</v>
+      </c>
+      <c r="F38">
+        <v>-385.55</v>
+      </c>
+      <c r="G38">
+        <v>100</v>
+      </c>
+      <c r="H38">
+        <v>50</v>
+      </c>
+      <c r="I38">
+        <v>50</v>
+      </c>
+      <c r="J38" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>36997</v>
+      </c>
+      <c r="B39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39">
+        <v>829.39</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>727.12</v>
+      </c>
+      <c r="F39">
+        <v>102.27</v>
+      </c>
+      <c r="G39">
+        <v>100</v>
+      </c>
+      <c r="H39">
+        <v>50</v>
+      </c>
+      <c r="I39">
+        <v>50</v>
+      </c>
+      <c r="J39" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>36997</v>
+      </c>
+      <c r="B40" t="s">
+        <v>507</v>
+      </c>
+      <c r="C40">
+        <v>191.24</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40">
+        <v>727.12</v>
+      </c>
+      <c r="F40">
+        <v>-535.88</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="H40">
+        <v>50</v>
+      </c>
+      <c r="I40">
+        <v>50</v>
+      </c>
+      <c r="J40" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>37001</v>
+      </c>
+      <c r="B41" t="s">
+        <v>243</v>
+      </c>
+      <c r="C41">
+        <v>-159.66999999999999</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41">
+        <v>727.12</v>
+      </c>
+      <c r="F41">
+        <v>-886.79</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+      <c r="H41">
+        <v>50</v>
+      </c>
+      <c r="I41">
+        <v>50</v>
+      </c>
+      <c r="J41" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>37004</v>
+      </c>
+      <c r="B42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C42">
+        <v>2739.57</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42">
+        <v>727.12</v>
+      </c>
+      <c r="F42">
+        <v>2012.45</v>
+      </c>
+      <c r="G42">
+        <v>100</v>
+      </c>
+      <c r="H42">
+        <v>50</v>
+      </c>
+      <c r="I42">
+        <v>50</v>
+      </c>
+      <c r="J42" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>37005</v>
+      </c>
+      <c r="B43" t="s">
+        <v>309</v>
+      </c>
+      <c r="C43">
+        <v>32.630000000000003</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43">
+        <v>727.12</v>
+      </c>
+      <c r="F43">
+        <v>-694.49</v>
+      </c>
+      <c r="G43">
+        <v>100</v>
+      </c>
+      <c r="H43">
+        <v>50</v>
+      </c>
+      <c r="I43">
+        <v>50</v>
+      </c>
+      <c r="J43" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>37007</v>
+      </c>
+      <c r="B44" t="s">
+        <v>622</v>
+      </c>
+      <c r="C44">
+        <v>-534.23</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44">
+        <v>727.12</v>
+      </c>
+      <c r="F44">
+        <v>-1261.3499999999999</v>
+      </c>
+      <c r="G44">
+        <v>100</v>
+      </c>
+      <c r="H44">
+        <v>50</v>
+      </c>
+      <c r="I44">
+        <v>50</v>
+      </c>
+      <c r="J44" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>37012</v>
+      </c>
+      <c r="B45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45">
+        <v>95.35</v>
+      </c>
+      <c r="D45" t="s">
+        <v>612</v>
+      </c>
+      <c r="E45">
+        <v>409.21</v>
+      </c>
+      <c r="F45">
+        <v>-313.86</v>
+      </c>
+      <c r="G45">
+        <v>53.84</v>
+      </c>
+      <c r="H45">
+        <v>50</v>
+      </c>
+      <c r="I45">
+        <v>3.84</v>
+      </c>
+      <c r="J45" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>37172</v>
+      </c>
+      <c r="B46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46">
+        <v>1211.1500000000001</v>
+      </c>
+      <c r="D46" t="s">
+        <v>295</v>
+      </c>
+      <c r="E46">
+        <v>-415.55</v>
+      </c>
+      <c r="F46">
+        <v>1626.7</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+      <c r="H46">
+        <v>50</v>
+      </c>
+      <c r="I46">
+        <v>50</v>
+      </c>
+      <c r="J46" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>37172</v>
+      </c>
+      <c r="B47" t="s">
+        <v>214</v>
+      </c>
+      <c r="C47">
+        <v>579.1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>295</v>
+      </c>
+      <c r="E47">
+        <v>-415.55</v>
+      </c>
+      <c r="F47">
+        <v>994.65</v>
+      </c>
+      <c r="G47">
+        <v>100</v>
+      </c>
+      <c r="H47">
+        <v>50</v>
+      </c>
+      <c r="I47">
+        <v>50</v>
+      </c>
+      <c r="J47" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>37172</v>
+      </c>
+      <c r="B48" t="s">
+        <v>622</v>
+      </c>
+      <c r="C48">
+        <v>-885.15</v>
+      </c>
+      <c r="D48" t="s">
+        <v>295</v>
+      </c>
+      <c r="E48">
+        <v>-415.55</v>
+      </c>
+      <c r="F48">
+        <v>-469.6</v>
+      </c>
+      <c r="G48">
+        <v>100</v>
+      </c>
+      <c r="H48">
+        <v>50</v>
+      </c>
+      <c r="I48">
+        <v>50</v>
+      </c>
+      <c r="J48" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>37175</v>
+      </c>
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49">
+        <v>-753.66</v>
+      </c>
+      <c r="D49" t="s">
+        <v>295</v>
+      </c>
+      <c r="E49">
+        <v>-415.55</v>
+      </c>
+      <c r="F49">
+        <v>-338.11</v>
+      </c>
+      <c r="G49">
+        <v>100</v>
+      </c>
+      <c r="H49">
+        <v>50</v>
+      </c>
+      <c r="I49">
+        <v>50</v>
+      </c>
+      <c r="J49" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>37175</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50">
+        <v>-627.94000000000005</v>
+      </c>
+      <c r="D50" t="s">
+        <v>295</v>
+      </c>
+      <c r="E50">
+        <v>-415.55</v>
+      </c>
+      <c r="F50">
+        <v>-212.39</v>
+      </c>
+      <c r="G50">
+        <v>100</v>
+      </c>
+      <c r="H50">
+        <v>50</v>
+      </c>
+      <c r="I50">
+        <v>50</v>
+      </c>
+      <c r="J50" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>37175</v>
+      </c>
+      <c r="B51" t="s">
+        <v>369</v>
+      </c>
+      <c r="C51">
+        <v>3223.35</v>
+      </c>
+      <c r="D51" t="s">
+        <v>295</v>
+      </c>
+      <c r="E51">
+        <v>-415.55</v>
+      </c>
+      <c r="F51">
+        <v>3638.9</v>
+      </c>
+      <c r="G51">
+        <v>100</v>
+      </c>
+      <c r="H51">
+        <v>50</v>
+      </c>
+      <c r="I51">
+        <v>50</v>
+      </c>
+      <c r="J51" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>37181</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52">
+        <v>-665.51</v>
+      </c>
+      <c r="D52" t="s">
+        <v>295</v>
+      </c>
+      <c r="E52">
+        <v>-415.55</v>
+      </c>
+      <c r="F52">
+        <v>-249.96</v>
+      </c>
+      <c r="G52">
+        <v>100</v>
+      </c>
+      <c r="H52">
+        <v>50</v>
+      </c>
+      <c r="I52">
+        <v>50</v>
+      </c>
+      <c r="J52" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>37393</v>
+      </c>
+      <c r="B53" t="s">
+        <v>369</v>
+      </c>
+      <c r="C53">
+        <v>-896.4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53">
+        <v>-20.75</v>
+      </c>
+      <c r="F53">
+        <v>-875.65</v>
+      </c>
+      <c r="G53">
+        <v>59.49</v>
+      </c>
+      <c r="H53">
+        <v>50</v>
+      </c>
+      <c r="I53">
+        <v>9.49</v>
+      </c>
+      <c r="J53" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>37469</v>
+      </c>
+      <c r="B54" t="s">
+        <v>622</v>
+      </c>
+      <c r="C54">
+        <v>-460.55</v>
+      </c>
+      <c r="D54" t="s">
+        <v>558</v>
+      </c>
+      <c r="E54">
+        <v>546.13</v>
+      </c>
+      <c r="F54">
+        <v>-1006.68</v>
+      </c>
+      <c r="G54">
+        <v>100</v>
+      </c>
+      <c r="H54">
+        <v>50</v>
+      </c>
+      <c r="I54">
+        <v>50</v>
+      </c>
+      <c r="J54" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>37475</v>
+      </c>
+      <c r="B55" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55">
+        <v>-484.98</v>
+      </c>
+      <c r="D55" t="s">
+        <v>558</v>
+      </c>
+      <c r="E55">
+        <v>546.13</v>
+      </c>
+      <c r="F55">
+        <v>-1031.1099999999999</v>
+      </c>
+      <c r="G55">
+        <v>100</v>
+      </c>
+      <c r="H55">
+        <v>50</v>
+      </c>
+      <c r="I55">
+        <v>50</v>
+      </c>
+      <c r="J55" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>37476</v>
+      </c>
+      <c r="B56" t="s">
+        <v>295</v>
+      </c>
+      <c r="C56">
+        <v>712.41</v>
+      </c>
+      <c r="D56" t="s">
+        <v>558</v>
+      </c>
+      <c r="E56">
+        <v>546.13</v>
+      </c>
+      <c r="F56">
+        <v>166.28</v>
+      </c>
+      <c r="G56">
+        <v>100</v>
+      </c>
+      <c r="H56">
+        <v>50</v>
+      </c>
+      <c r="I56">
+        <v>50</v>
+      </c>
+      <c r="J56" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>37477</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57">
+        <v>298.75</v>
+      </c>
+      <c r="D57" t="s">
+        <v>558</v>
+      </c>
+      <c r="E57">
+        <v>546.13</v>
+      </c>
+      <c r="F57">
+        <v>-247.38</v>
+      </c>
+      <c r="G57">
+        <v>100</v>
+      </c>
+      <c r="H57">
+        <v>50</v>
+      </c>
+      <c r="I57">
+        <v>50</v>
+      </c>
+      <c r="J57" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>37477</v>
+      </c>
+      <c r="B58" t="s">
+        <v>269</v>
+      </c>
+      <c r="C58">
+        <v>-1.34</v>
+      </c>
+      <c r="D58" t="s">
+        <v>558</v>
+      </c>
+      <c r="E58">
+        <v>546.13</v>
+      </c>
+      <c r="F58">
+        <v>-547.48</v>
+      </c>
+      <c r="G58">
+        <v>100</v>
+      </c>
+      <c r="H58">
+        <v>50</v>
+      </c>
+      <c r="I58">
+        <v>50</v>
+      </c>
+      <c r="J58" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>37477</v>
+      </c>
+      <c r="B59" t="s">
+        <v>316</v>
+      </c>
+      <c r="C59">
+        <v>-808.26</v>
+      </c>
+      <c r="D59" t="s">
+        <v>558</v>
+      </c>
+      <c r="E59">
+        <v>546.13</v>
+      </c>
+      <c r="F59">
+        <v>-1354.39</v>
+      </c>
+      <c r="G59">
+        <v>100</v>
+      </c>
+      <c r="H59">
+        <v>50</v>
+      </c>
+      <c r="I59">
+        <v>50</v>
+      </c>
+      <c r="J59" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>37480</v>
+      </c>
+      <c r="B60" t="s">
+        <v>649</v>
+      </c>
+      <c r="C60">
+        <v>-543.38</v>
+      </c>
+      <c r="D60" t="s">
+        <v>558</v>
+      </c>
+      <c r="E60">
+        <v>546.13</v>
+      </c>
+      <c r="F60">
+        <v>-1089.51</v>
+      </c>
+      <c r="G60">
+        <v>100</v>
+      </c>
+      <c r="H60">
+        <v>50</v>
+      </c>
+      <c r="I60">
+        <v>50</v>
+      </c>
+      <c r="J60" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>37488</v>
+      </c>
+      <c r="B61" t="s">
+        <v>440</v>
+      </c>
+      <c r="C61">
+        <v>-359.08</v>
+      </c>
+      <c r="D61" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61">
+        <v>-522.95000000000005</v>
+      </c>
+      <c r="F61">
+        <v>163.87</v>
+      </c>
+      <c r="G61">
+        <v>100</v>
+      </c>
+      <c r="H61">
+        <v>50</v>
+      </c>
+      <c r="I61">
+        <v>50</v>
+      </c>
+      <c r="J61" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>37491</v>
+      </c>
+      <c r="B62" t="s">
+        <v>507</v>
+      </c>
+      <c r="C62">
+        <v>-551.19000000000005</v>
+      </c>
+      <c r="D62" t="s">
+        <v>101</v>
+      </c>
+      <c r="E62">
+        <v>-522.95000000000005</v>
+      </c>
+      <c r="F62">
+        <v>-28.24</v>
+      </c>
+      <c r="G62">
+        <v>100</v>
+      </c>
+      <c r="H62">
+        <v>50</v>
+      </c>
+      <c r="I62">
+        <v>50</v>
+      </c>
+      <c r="J62" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>37544</v>
+      </c>
+      <c r="B63" t="s">
+        <v>280</v>
+      </c>
+      <c r="C63">
+        <v>-561.13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>612</v>
+      </c>
+      <c r="E63">
+        <v>1162.3</v>
+      </c>
+      <c r="F63">
+        <v>-1723.44</v>
+      </c>
+      <c r="G63">
+        <v>100</v>
+      </c>
+      <c r="H63">
+        <v>50</v>
+      </c>
+      <c r="I63">
+        <v>50</v>
+      </c>
+      <c r="J63" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>37544</v>
+      </c>
+      <c r="B64" t="s">
+        <v>369</v>
+      </c>
+      <c r="C64">
+        <v>2103.8000000000002</v>
+      </c>
+      <c r="D64" t="s">
+        <v>612</v>
+      </c>
+      <c r="E64">
+        <v>1162.3</v>
+      </c>
+      <c r="F64">
+        <v>941.5</v>
+      </c>
+      <c r="G64">
+        <v>100</v>
+      </c>
+      <c r="H64">
+        <v>50</v>
+      </c>
+      <c r="I64">
+        <v>50</v>
+      </c>
+      <c r="J64" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>37544</v>
+      </c>
+      <c r="B65" t="s">
+        <v>440</v>
+      </c>
+      <c r="C65">
+        <v>804.85</v>
+      </c>
+      <c r="D65" t="s">
+        <v>612</v>
+      </c>
+      <c r="E65">
+        <v>1162.3</v>
+      </c>
+      <c r="F65">
+        <v>-357.46</v>
+      </c>
+      <c r="G65">
+        <v>100</v>
+      </c>
+      <c r="H65">
+        <v>50</v>
+      </c>
+      <c r="I65">
+        <v>50</v>
+      </c>
+      <c r="J65" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>37544</v>
+      </c>
+      <c r="B66" t="s">
+        <v>649</v>
+      </c>
+      <c r="C66">
+        <v>-728.32</v>
+      </c>
+      <c r="D66" t="s">
+        <v>612</v>
+      </c>
+      <c r="E66">
+        <v>1162.3</v>
+      </c>
+      <c r="F66">
+        <v>-1890.63</v>
+      </c>
+      <c r="G66">
+        <v>100</v>
+      </c>
+      <c r="H66">
+        <v>50</v>
+      </c>
+      <c r="I66">
+        <v>50</v>
+      </c>
+      <c r="J66" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>37546</v>
+      </c>
+      <c r="B67" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67">
+        <v>747.63</v>
+      </c>
+      <c r="D67" t="s">
+        <v>612</v>
+      </c>
+      <c r="E67">
+        <v>1162.3</v>
+      </c>
+      <c r="F67">
+        <v>-414.67</v>
+      </c>
+      <c r="G67">
+        <v>100</v>
+      </c>
+      <c r="H67">
+        <v>50</v>
+      </c>
+      <c r="I67">
+        <v>50</v>
+      </c>
+      <c r="J67" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>37551</v>
+      </c>
+      <c r="B68" t="s">
+        <v>243</v>
+      </c>
+      <c r="C68">
+        <v>925.01</v>
+      </c>
+      <c r="D68" t="s">
+        <v>612</v>
+      </c>
+      <c r="E68">
+        <v>1162.3</v>
+      </c>
+      <c r="F68">
+        <v>-237.29</v>
+      </c>
+      <c r="G68">
+        <v>81.34</v>
+      </c>
+      <c r="H68">
+        <v>50</v>
+      </c>
+      <c r="I68">
+        <v>31.34</v>
+      </c>
+      <c r="J68" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>37551</v>
+      </c>
+      <c r="B69" t="s">
+        <v>507</v>
+      </c>
+      <c r="C69">
+        <v>359.16</v>
+      </c>
+      <c r="D69" t="s">
+        <v>612</v>
+      </c>
+      <c r="E69">
+        <v>1162.3</v>
+      </c>
+      <c r="F69">
+        <v>-803.14</v>
+      </c>
+      <c r="G69">
+        <v>81.34</v>
+      </c>
+      <c r="H69">
+        <v>50</v>
+      </c>
+      <c r="I69">
+        <v>31.34</v>
+      </c>
+      <c r="J69" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>37552</v>
+      </c>
+      <c r="B70" t="s">
+        <v>589</v>
+      </c>
+      <c r="C70">
+        <v>1056.54</v>
+      </c>
+      <c r="D70" t="s">
+        <v>65</v>
+      </c>
+      <c r="E70">
+        <v>-966.97</v>
+      </c>
+      <c r="F70">
+        <v>2023.51</v>
+      </c>
+      <c r="G70">
+        <v>100</v>
+      </c>
+      <c r="H70">
+        <v>50</v>
+      </c>
+      <c r="I70">
+        <v>50</v>
+      </c>
+      <c r="J70" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>37644</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71">
+        <v>-782.62</v>
+      </c>
+      <c r="D71" t="s">
+        <v>622</v>
+      </c>
+      <c r="E71">
+        <v>103.93</v>
+      </c>
+      <c r="F71">
+        <v>-886.56</v>
+      </c>
+      <c r="G71">
+        <v>100</v>
+      </c>
+      <c r="H71">
+        <v>50</v>
+      </c>
+      <c r="I71">
+        <v>50</v>
+      </c>
+      <c r="J71" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>37644</v>
+      </c>
+      <c r="B72" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72">
+        <v>-758.72</v>
+      </c>
+      <c r="D72" t="s">
+        <v>622</v>
+      </c>
+      <c r="E72">
+        <v>103.93</v>
+      </c>
+      <c r="F72">
+        <v>-862.65</v>
+      </c>
+      <c r="G72">
+        <v>100</v>
+      </c>
+      <c r="H72">
+        <v>50</v>
+      </c>
+      <c r="I72">
+        <v>50</v>
+      </c>
+      <c r="J72" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>37699</v>
+      </c>
+      <c r="B73" t="s">
+        <v>612</v>
+      </c>
+      <c r="C73">
+        <v>-910.09</v>
+      </c>
+      <c r="D73" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73">
+        <v>902.03</v>
+      </c>
+      <c r="F73">
+        <v>-1812.12</v>
+      </c>
+      <c r="G73">
+        <v>100</v>
+      </c>
+      <c r="H73">
+        <v>50</v>
+      </c>
+      <c r="I73">
+        <v>50</v>
+      </c>
+      <c r="J73" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>37700</v>
+      </c>
+      <c r="B74" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74">
+        <v>2066</v>
+      </c>
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74">
+        <v>902.03</v>
+      </c>
+      <c r="F74">
+        <v>1163.97</v>
+      </c>
+      <c r="G74">
+        <v>100</v>
+      </c>
+      <c r="H74">
+        <v>50</v>
+      </c>
+      <c r="I74">
+        <v>50</v>
+      </c>
+      <c r="J74" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>37701</v>
+      </c>
+      <c r="B75" t="s">
+        <v>243</v>
+      </c>
+      <c r="C75">
+        <v>3532.62</v>
+      </c>
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75">
+        <v>902.03</v>
+      </c>
+      <c r="F75">
+        <v>2630.59</v>
+      </c>
+      <c r="G75">
+        <v>100</v>
+      </c>
+      <c r="H75">
+        <v>50</v>
+      </c>
+      <c r="I75">
+        <v>50</v>
+      </c>
+      <c r="J75" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>37701</v>
+      </c>
+      <c r="B76" t="s">
+        <v>440</v>
+      </c>
+      <c r="C76">
+        <v>-1505.49</v>
+      </c>
+      <c r="D76" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76">
+        <v>902.03</v>
+      </c>
+      <c r="F76">
+        <v>-2407.52</v>
+      </c>
+      <c r="G76">
+        <v>100</v>
+      </c>
+      <c r="H76">
+        <v>50</v>
+      </c>
+      <c r="I76">
+        <v>50</v>
+      </c>
+      <c r="J76" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>38299</v>
+      </c>
+      <c r="B77" t="s">
+        <v>214</v>
+      </c>
+      <c r="C77">
+        <v>4437.4399999999996</v>
+      </c>
+      <c r="D77" t="s">
+        <v>116</v>
+      </c>
+      <c r="E77">
+        <v>1755.97</v>
+      </c>
+      <c r="F77">
+        <v>2681.47</v>
+      </c>
+      <c r="G77">
+        <v>100</v>
+      </c>
+      <c r="H77">
+        <v>50</v>
+      </c>
+      <c r="I77">
+        <v>50</v>
+      </c>
+      <c r="J77" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>38301</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78">
+        <v>212.44</v>
+      </c>
+      <c r="D78" t="s">
+        <v>116</v>
+      </c>
+      <c r="E78">
+        <v>1755.97</v>
+      </c>
+      <c r="F78">
+        <v>-1543.53</v>
+      </c>
+      <c r="G78">
+        <v>100</v>
+      </c>
+      <c r="H78">
+        <v>50</v>
+      </c>
+      <c r="I78">
+        <v>50</v>
+      </c>
+      <c r="J78" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>39541</v>
+      </c>
+      <c r="B79" t="s">
+        <v>598</v>
+      </c>
+      <c r="C79">
+        <v>-5.51</v>
+      </c>
+      <c r="D79" t="s">
+        <v>243</v>
+      </c>
+      <c r="E79">
+        <v>263.97000000000003</v>
+      </c>
+      <c r="F79">
+        <v>-269.48</v>
+      </c>
+      <c r="G79">
+        <v>100</v>
+      </c>
+      <c r="H79">
+        <v>50</v>
+      </c>
+      <c r="I79">
+        <v>50</v>
+      </c>
+      <c r="J79" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>39659</v>
+      </c>
+      <c r="B80" t="s">
+        <v>322</v>
+      </c>
+      <c r="C80">
+        <v>-589.54</v>
+      </c>
+      <c r="D80" t="s">
+        <v>214</v>
+      </c>
+      <c r="E80">
+        <v>589.37</v>
+      </c>
+      <c r="F80">
+        <v>-1178.9000000000001</v>
+      </c>
+      <c r="G80">
+        <v>100</v>
+      </c>
+      <c r="H80">
+        <v>50</v>
+      </c>
+      <c r="I80">
+        <v>50</v>
+      </c>
+      <c r="J80" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>39659</v>
+      </c>
+      <c r="B81" t="s">
+        <v>440</v>
+      </c>
+      <c r="C81">
+        <v>-171.04</v>
+      </c>
+      <c r="D81" t="s">
+        <v>214</v>
+      </c>
+      <c r="E81">
+        <v>589.37</v>
+      </c>
+      <c r="F81">
+        <v>-760.4</v>
+      </c>
+      <c r="G81">
+        <v>100</v>
+      </c>
+      <c r="H81">
+        <v>50</v>
+      </c>
+      <c r="I81">
+        <v>50</v>
+      </c>
+      <c r="J81" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>39660</v>
+      </c>
+      <c r="B82" t="s">
+        <v>558</v>
+      </c>
+      <c r="C82">
+        <v>177.79</v>
+      </c>
+      <c r="D82" t="s">
+        <v>214</v>
+      </c>
+      <c r="E82">
+        <v>589.37</v>
+      </c>
+      <c r="F82">
+        <v>-411.58</v>
+      </c>
+      <c r="G82">
+        <v>100</v>
+      </c>
+      <c r="H82">
+        <v>50</v>
+      </c>
+      <c r="I82">
+        <v>50</v>
+      </c>
+      <c r="J82" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>39756</v>
+      </c>
+      <c r="B83" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83">
+        <v>-764.93</v>
+      </c>
+      <c r="D83" t="s">
+        <v>472</v>
+      </c>
+      <c r="E83">
+        <v>-595.08000000000004</v>
+      </c>
+      <c r="F83">
+        <v>-169.84</v>
+      </c>
+      <c r="G83">
+        <v>100</v>
+      </c>
+      <c r="H83">
+        <v>50</v>
+      </c>
+      <c r="I83">
+        <v>50</v>
+      </c>
+      <c r="J83" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>39780</v>
+      </c>
+      <c r="B84" t="s">
+        <v>612</v>
+      </c>
+      <c r="C84">
+        <v>-173.62</v>
+      </c>
+      <c r="D84" t="s">
+        <v>316</v>
+      </c>
+      <c r="E84">
+        <v>207.4</v>
+      </c>
+      <c r="F84">
+        <v>-381.02</v>
+      </c>
+      <c r="G84">
+        <v>100</v>
+      </c>
+      <c r="H84">
+        <v>50</v>
+      </c>
+      <c r="I84">
+        <v>50</v>
+      </c>
+      <c r="J84" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>39780</v>
+      </c>
+      <c r="B85" t="s">
+        <v>649</v>
+      </c>
+      <c r="C85">
+        <v>-212.9</v>
+      </c>
+      <c r="D85" t="s">
+        <v>316</v>
+      </c>
+      <c r="E85">
+        <v>207.4</v>
+      </c>
+      <c r="F85">
+        <v>-420.3</v>
+      </c>
+      <c r="G85">
+        <v>100</v>
+      </c>
+      <c r="H85">
+        <v>50</v>
+      </c>
+      <c r="I85">
+        <v>50</v>
+      </c>
+      <c r="J85" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>39790</v>
+      </c>
+      <c r="B86" t="s">
+        <v>243</v>
+      </c>
+      <c r="C86">
+        <v>-695.45</v>
+      </c>
+      <c r="D86" t="s">
+        <v>316</v>
+      </c>
+      <c r="E86">
+        <v>207.4</v>
+      </c>
+      <c r="F86">
+        <v>-902.85</v>
+      </c>
+      <c r="G86">
+        <v>100</v>
+      </c>
+      <c r="H86">
+        <v>50</v>
+      </c>
+      <c r="I86">
+        <v>50</v>
+      </c>
+      <c r="J86" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>39790</v>
+      </c>
+      <c r="B87" t="s">
+        <v>322</v>
+      </c>
+      <c r="C87">
+        <v>8266.65</v>
+      </c>
+      <c r="D87" t="s">
+        <v>316</v>
+      </c>
+      <c r="E87">
+        <v>207.4</v>
+      </c>
+      <c r="F87">
+        <v>8059.25</v>
+      </c>
+      <c r="G87">
+        <v>100</v>
+      </c>
+      <c r="H87">
+        <v>50</v>
+      </c>
+      <c r="I87">
+        <v>50</v>
+      </c>
+      <c r="J87" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>39791</v>
+      </c>
+      <c r="B88" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88">
+        <v>0.4</v>
+      </c>
+      <c r="D88" t="s">
+        <v>316</v>
+      </c>
+      <c r="E88">
+        <v>207.4</v>
+      </c>
+      <c r="F88">
+        <v>-207</v>
+      </c>
+      <c r="G88">
+        <v>100</v>
+      </c>
+      <c r="H88">
+        <v>50</v>
+      </c>
+      <c r="I88">
+        <v>50</v>
+      </c>
+      <c r="J88" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>39791</v>
+      </c>
+      <c r="B89" t="s">
+        <v>128</v>
+      </c>
+      <c r="C89">
+        <v>-253.65</v>
+      </c>
+      <c r="D89" t="s">
+        <v>316</v>
+      </c>
+      <c r="E89">
+        <v>207.4</v>
+      </c>
+      <c r="F89">
+        <v>-461.04</v>
+      </c>
+      <c r="G89">
+        <v>100</v>
+      </c>
+      <c r="H89">
+        <v>50</v>
+      </c>
+      <c r="I89">
+        <v>50</v>
+      </c>
+      <c r="J89" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>39792</v>
+      </c>
+      <c r="B90" t="s">
+        <v>269</v>
+      </c>
+      <c r="C90">
+        <v>279.33</v>
+      </c>
+      <c r="D90" t="s">
+        <v>316</v>
+      </c>
+      <c r="E90">
+        <v>207.4</v>
+      </c>
+      <c r="F90">
+        <v>71.930000000000007</v>
+      </c>
+      <c r="G90">
+        <v>100</v>
+      </c>
+      <c r="H90">
+        <v>50</v>
+      </c>
+      <c r="I90">
+        <v>50</v>
+      </c>
+      <c r="J90" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>39792</v>
+      </c>
+      <c r="B91" t="s">
+        <v>369</v>
+      </c>
+      <c r="C91">
+        <v>-1753.73</v>
+      </c>
+      <c r="D91" t="s">
+        <v>316</v>
+      </c>
+      <c r="E91">
+        <v>207.4</v>
+      </c>
+      <c r="F91">
+        <v>-1961.13</v>
+      </c>
+      <c r="G91">
+        <v>100</v>
+      </c>
+      <c r="H91">
+        <v>50</v>
+      </c>
+      <c r="I91">
+        <v>50</v>
+      </c>
+      <c r="J91" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>39793</v>
+      </c>
+      <c r="B92" t="s">
+        <v>427</v>
+      </c>
+      <c r="C92">
+        <v>-320.54000000000002</v>
+      </c>
+      <c r="D92" t="s">
+        <v>316</v>
+      </c>
+      <c r="E92">
+        <v>207.4</v>
+      </c>
+      <c r="F92">
+        <v>-527.94000000000005</v>
+      </c>
+      <c r="G92">
+        <v>100</v>
+      </c>
+      <c r="H92">
+        <v>50</v>
+      </c>
+      <c r="I92">
+        <v>50</v>
+      </c>
+      <c r="J92" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>39818</v>
+      </c>
+      <c r="B93" t="s">
+        <v>545</v>
+      </c>
+      <c r="C93">
+        <v>1379.37</v>
+      </c>
+      <c r="D93" t="s">
+        <v>116</v>
+      </c>
+      <c r="E93">
+        <v>1093.74</v>
+      </c>
+      <c r="F93">
+        <v>285.62</v>
+      </c>
+      <c r="G93">
+        <v>100</v>
+      </c>
+      <c r="H93">
+        <v>50</v>
+      </c>
+      <c r="I93">
+        <v>50</v>
+      </c>
+      <c r="J93" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>39818</v>
+      </c>
+      <c r="B94" t="s">
+        <v>558</v>
+      </c>
+      <c r="C94">
+        <v>-449.19</v>
+      </c>
+      <c r="D94" t="s">
+        <v>116</v>
+      </c>
+      <c r="E94">
+        <v>1093.74</v>
+      </c>
+      <c r="F94">
+        <v>-1542.93</v>
+      </c>
+      <c r="G94">
+        <v>100</v>
+      </c>
+      <c r="H94">
+        <v>50</v>
+      </c>
+      <c r="I94">
+        <v>50</v>
+      </c>
+      <c r="J94" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>39818</v>
+      </c>
+      <c r="B95" t="s">
+        <v>589</v>
+      </c>
+      <c r="C95">
+        <v>-76.38</v>
+      </c>
+      <c r="D95" t="s">
+        <v>116</v>
+      </c>
+      <c r="E95">
+        <v>1093.74</v>
+      </c>
+      <c r="F95">
+        <v>-1170.1199999999999</v>
+      </c>
+      <c r="G95">
+        <v>100</v>
+      </c>
+      <c r="H95">
+        <v>50</v>
+      </c>
+      <c r="I95">
+        <v>50</v>
+      </c>
+      <c r="J95" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>39819</v>
+      </c>
+      <c r="B96" t="s">
+        <v>622</v>
+      </c>
+      <c r="C96">
+        <v>-668.64</v>
+      </c>
+      <c r="D96" t="s">
+        <v>116</v>
+      </c>
+      <c r="E96">
+        <v>1093.74</v>
+      </c>
+      <c r="F96">
+        <v>-1762.38</v>
+      </c>
+      <c r="G96">
+        <v>100</v>
+      </c>
+      <c r="H96">
+        <v>50</v>
+      </c>
+      <c r="I96">
+        <v>50</v>
+      </c>
+      <c r="J96" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>39821</v>
+      </c>
+      <c r="B97" t="s">
+        <v>150</v>
+      </c>
+      <c r="C97">
+        <v>-658.99</v>
+      </c>
+      <c r="D97" t="s">
+        <v>116</v>
+      </c>
+      <c r="E97">
+        <v>1093.74</v>
+      </c>
+      <c r="F97">
+        <v>-1752.73</v>
+      </c>
+      <c r="G97">
+        <v>100</v>
+      </c>
+      <c r="H97">
+        <v>50</v>
+      </c>
+      <c r="I97">
+        <v>50</v>
+      </c>
+      <c r="J97" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>39821</v>
+      </c>
+      <c r="B98" t="s">
+        <v>507</v>
+      </c>
+      <c r="C98">
+        <v>-448.89</v>
+      </c>
+      <c r="D98" t="s">
+        <v>116</v>
+      </c>
+      <c r="E98">
+        <v>1093.74</v>
+      </c>
+      <c r="F98">
+        <v>-1542.63</v>
+      </c>
+      <c r="G98">
+        <v>100</v>
+      </c>
+      <c r="H98">
+        <v>50</v>
+      </c>
+      <c r="I98">
+        <v>50</v>
+      </c>
+      <c r="J98" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>39843</v>
+      </c>
+      <c r="B99" t="s">
+        <v>316</v>
+      </c>
+      <c r="C99">
+        <v>-543.94000000000005</v>
+      </c>
+      <c r="D99" t="s">
+        <v>280</v>
+      </c>
+      <c r="E99">
+        <v>-904.93</v>
+      </c>
+      <c r="F99">
+        <v>360.99</v>
+      </c>
+      <c r="G99">
+        <v>100</v>
+      </c>
+      <c r="H99">
+        <v>50</v>
+      </c>
+      <c r="I99">
+        <v>50</v>
+      </c>
+      <c r="J99" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>39848</v>
+      </c>
+      <c r="B100" t="s">
+        <v>558</v>
+      </c>
+      <c r="C100">
+        <v>-474.94</v>
+      </c>
+      <c r="D100" t="s">
+        <v>280</v>
+      </c>
+      <c r="E100">
+        <v>-904.93</v>
+      </c>
+      <c r="F100">
+        <v>429.99</v>
+      </c>
+      <c r="G100">
+        <v>100</v>
+      </c>
+      <c r="H100">
+        <v>50</v>
+      </c>
+      <c r="I100">
+        <v>50</v>
+      </c>
+      <c r="J100" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>39850</v>
+      </c>
+      <c r="B101" t="s">
+        <v>171</v>
+      </c>
+      <c r="C101">
+        <v>-505.02</v>
+      </c>
+      <c r="D101" t="s">
+        <v>280</v>
+      </c>
+      <c r="E101">
+        <v>-904.93</v>
+      </c>
+      <c r="F101">
+        <v>399.91</v>
+      </c>
+      <c r="G101">
+        <v>100</v>
+      </c>
+      <c r="H101">
+        <v>50</v>
+      </c>
+      <c r="I101">
+        <v>50</v>
+      </c>
+      <c r="J101" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>39850</v>
+      </c>
+      <c r="B102" t="s">
+        <v>214</v>
+      </c>
+      <c r="C102">
+        <v>-1181.97</v>
+      </c>
+      <c r="D102" t="s">
+        <v>280</v>
+      </c>
+      <c r="E102">
+        <v>-904.93</v>
+      </c>
+      <c r="F102">
+        <v>-277.05</v>
+      </c>
+      <c r="G102">
+        <v>100</v>
+      </c>
+      <c r="H102">
+        <v>50</v>
+      </c>
+      <c r="I102">
+        <v>50</v>
+      </c>
+      <c r="J102" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>39850</v>
+      </c>
+      <c r="B103" t="s">
+        <v>369</v>
+      </c>
+      <c r="C103">
+        <v>-2642.53</v>
+      </c>
+      <c r="D103" t="s">
+        <v>280</v>
+      </c>
+      <c r="E103">
+        <v>-904.93</v>
+      </c>
+      <c r="F103">
+        <v>-1737.6</v>
+      </c>
+      <c r="G103">
+        <v>100</v>
+      </c>
+      <c r="H103">
+        <v>50</v>
+      </c>
+      <c r="I103">
+        <v>50</v>
+      </c>
+      <c r="J103" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>39853</v>
+      </c>
+      <c r="B104" t="s">
+        <v>622</v>
+      </c>
+      <c r="C104">
+        <v>-589.88</v>
+      </c>
+      <c r="D104" t="s">
+        <v>280</v>
+      </c>
+      <c r="E104">
+        <v>-904.93</v>
+      </c>
+      <c r="F104">
+        <v>315.05</v>
+      </c>
+      <c r="G104">
+        <v>100</v>
+      </c>
+      <c r="H104">
+        <v>50</v>
+      </c>
+      <c r="I104">
+        <v>50</v>
+      </c>
+      <c r="J104" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>39885</v>
+      </c>
+      <c r="B105" t="s">
+        <v>309</v>
+      </c>
+      <c r="C105">
+        <v>1297.0899999999999</v>
+      </c>
+      <c r="D105" t="s">
+        <v>598</v>
+      </c>
+      <c r="E105">
+        <v>317.36</v>
+      </c>
+      <c r="F105">
+        <v>979.73</v>
+      </c>
+      <c r="G105">
+        <v>100</v>
+      </c>
+      <c r="H105">
+        <v>50</v>
+      </c>
+      <c r="I105">
+        <v>50</v>
+      </c>
+      <c r="J105" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>39885</v>
+      </c>
+      <c r="B106" t="s">
+        <v>369</v>
+      </c>
+      <c r="C106">
+        <v>-642</v>
+      </c>
+      <c r="D106" t="s">
+        <v>598</v>
+      </c>
+      <c r="E106">
+        <v>317.36</v>
+      </c>
+      <c r="F106">
+        <v>-959.36</v>
+      </c>
+      <c r="G106">
+        <v>100</v>
+      </c>
+      <c r="H106">
+        <v>50</v>
+      </c>
+      <c r="I106">
+        <v>50</v>
+      </c>
+      <c r="J106" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>39885</v>
+      </c>
+      <c r="B107" t="s">
+        <v>440</v>
+      </c>
+      <c r="C107">
+        <v>2188.83</v>
+      </c>
+      <c r="D107" t="s">
+        <v>598</v>
+      </c>
+      <c r="E107">
+        <v>317.36</v>
+      </c>
+      <c r="F107">
+        <v>1871.47</v>
+      </c>
+      <c r="G107">
+        <v>100</v>
+      </c>
+      <c r="H107">
+        <v>50</v>
+      </c>
+      <c r="I107">
+        <v>50</v>
+      </c>
+      <c r="J107" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>39888</v>
+      </c>
+      <c r="B108" t="s">
+        <v>65</v>
+      </c>
+      <c r="C108">
+        <v>1264.18</v>
+      </c>
+      <c r="D108" t="s">
+        <v>598</v>
+      </c>
+      <c r="E108">
+        <v>317.36</v>
+      </c>
+      <c r="F108">
+        <v>946.82</v>
+      </c>
+      <c r="G108">
+        <v>100</v>
+      </c>
+      <c r="H108">
+        <v>50</v>
+      </c>
+      <c r="I108">
+        <v>50</v>
+      </c>
+      <c r="J108" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>39888</v>
+      </c>
+      <c r="B109" t="s">
+        <v>77</v>
+      </c>
+      <c r="C109">
+        <v>542.45000000000005</v>
+      </c>
+      <c r="D109" t="s">
+        <v>598</v>
+      </c>
+      <c r="E109">
+        <v>317.36</v>
+      </c>
+      <c r="F109">
+        <v>225.08</v>
+      </c>
+      <c r="G109">
+        <v>100</v>
+      </c>
+      <c r="H109">
+        <v>50</v>
+      </c>
+      <c r="I109">
+        <v>50</v>
+      </c>
+      <c r="J109" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>39888</v>
+      </c>
+      <c r="B110" t="s">
+        <v>545</v>
+      </c>
+      <c r="C110">
+        <v>3113.79</v>
+      </c>
+      <c r="D110" t="s">
+        <v>598</v>
+      </c>
+      <c r="E110">
+        <v>317.36</v>
+      </c>
+      <c r="F110">
+        <v>2796.43</v>
+      </c>
+      <c r="G110">
+        <v>100</v>
+      </c>
+      <c r="H110">
+        <v>50</v>
+      </c>
+      <c r="I110">
+        <v>50</v>
+      </c>
+      <c r="J110" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>39889</v>
+      </c>
+      <c r="B111" t="s">
+        <v>171</v>
+      </c>
+      <c r="C111">
+        <v>506.55</v>
+      </c>
+      <c r="D111" t="s">
+        <v>598</v>
+      </c>
+      <c r="E111">
+        <v>317.36</v>
+      </c>
+      <c r="F111">
+        <v>189.19</v>
+      </c>
+      <c r="G111">
+        <v>100</v>
+      </c>
+      <c r="H111">
+        <v>50</v>
+      </c>
+      <c r="I111">
+        <v>50</v>
+      </c>
+      <c r="J111" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>39890</v>
+      </c>
+      <c r="B112" t="s">
+        <v>150</v>
+      </c>
+      <c r="C112">
+        <v>949.12</v>
+      </c>
+      <c r="D112" t="s">
+        <v>598</v>
+      </c>
+      <c r="E112">
+        <v>317.36</v>
+      </c>
+      <c r="F112">
+        <v>631.76</v>
+      </c>
+      <c r="G112">
+        <v>100</v>
+      </c>
+      <c r="H112">
+        <v>50</v>
+      </c>
+      <c r="I112">
+        <v>50</v>
+      </c>
+      <c r="J112" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>39890</v>
+      </c>
+      <c r="B113" t="s">
+        <v>269</v>
+      </c>
+      <c r="C113">
+        <v>73.16</v>
+      </c>
+      <c r="D113" t="s">
+        <v>598</v>
+      </c>
+      <c r="E113">
+        <v>317.36</v>
+      </c>
+      <c r="F113">
+        <v>-244.2</v>
+      </c>
+      <c r="G113">
+        <v>100</v>
+      </c>
+      <c r="H113">
+        <v>50</v>
+      </c>
+      <c r="I113">
+        <v>50</v>
+      </c>
+      <c r="J113" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>39890</v>
+      </c>
+      <c r="B114" t="s">
+        <v>316</v>
+      </c>
+      <c r="C114">
+        <v>759.1</v>
+      </c>
+      <c r="D114" t="s">
+        <v>598</v>
+      </c>
+      <c r="E114">
+        <v>317.36</v>
+      </c>
+      <c r="F114">
+        <v>441.73</v>
+      </c>
+      <c r="G114">
+        <v>100</v>
+      </c>
+      <c r="H114">
+        <v>50</v>
+      </c>
+      <c r="I114">
+        <v>50</v>
+      </c>
+      <c r="J114" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>39890</v>
+      </c>
+      <c r="B115" t="s">
+        <v>589</v>
+      </c>
+      <c r="C115">
+        <v>194.09</v>
+      </c>
+      <c r="D115" t="s">
+        <v>598</v>
+      </c>
+      <c r="E115">
+        <v>317.36</v>
+      </c>
+      <c r="F115">
+        <v>-123.28</v>
+      </c>
+      <c r="G115">
+        <v>100</v>
+      </c>
+      <c r="H115">
+        <v>50</v>
+      </c>
+      <c r="I115">
+        <v>50</v>
+      </c>
+      <c r="J115" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>39890</v>
+      </c>
+      <c r="B116" t="s">
+        <v>612</v>
+      </c>
+      <c r="C116">
+        <v>-29.63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>598</v>
+      </c>
+      <c r="E116">
+        <v>317.36</v>
+      </c>
+      <c r="F116">
+        <v>-346.99</v>
+      </c>
+      <c r="G116">
+        <v>100</v>
+      </c>
+      <c r="H116">
+        <v>50</v>
+      </c>
+      <c r="I116">
+        <v>50</v>
+      </c>
+      <c r="J116" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>39891</v>
+      </c>
+      <c r="B117" t="s">
+        <v>128</v>
+      </c>
+      <c r="C117">
+        <v>996.69</v>
+      </c>
+      <c r="D117" t="s">
+        <v>598</v>
+      </c>
+      <c r="E117">
+        <v>317.36</v>
+      </c>
+      <c r="F117">
+        <v>679.33</v>
+      </c>
+      <c r="G117">
+        <v>100</v>
+      </c>
+      <c r="H117">
+        <v>50</v>
+      </c>
+      <c r="I117">
+        <v>50</v>
+      </c>
+      <c r="J117" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>39891</v>
+      </c>
+      <c r="B118" t="s">
+        <v>187</v>
+      </c>
+      <c r="C118">
+        <v>-535.33000000000004</v>
+      </c>
+      <c r="D118" t="s">
+        <v>598</v>
+      </c>
+      <c r="E118">
+        <v>317.36</v>
+      </c>
+      <c r="F118">
+        <v>-852.69</v>
+      </c>
+      <c r="G118">
+        <v>100</v>
+      </c>
+      <c r="H118">
+        <v>50</v>
+      </c>
+      <c r="I118">
+        <v>50</v>
+      </c>
+      <c r="J118" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>39891</v>
+      </c>
+      <c r="B119" t="s">
+        <v>507</v>
+      </c>
+      <c r="C119">
+        <v>671.6</v>
+      </c>
+      <c r="D119" t="s">
+        <v>598</v>
+      </c>
+      <c r="E119">
+        <v>317.36</v>
+      </c>
+      <c r="F119">
+        <v>354.24</v>
+      </c>
+      <c r="G119">
+        <v>100</v>
+      </c>
+      <c r="H119">
+        <v>50</v>
+      </c>
+      <c r="I119">
+        <v>50</v>
+      </c>
+      <c r="J119" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>39895</v>
+      </c>
+      <c r="B120" t="s">
+        <v>295</v>
+      </c>
+      <c r="C120">
+        <v>560.47</v>
+      </c>
+      <c r="D120" t="s">
+        <v>598</v>
+      </c>
+      <c r="E120">
+        <v>317.36</v>
+      </c>
+      <c r="F120">
+        <v>243.11</v>
+      </c>
+      <c r="G120">
+        <v>100</v>
+      </c>
+      <c r="H120">
+        <v>50</v>
+      </c>
+      <c r="I120">
+        <v>50</v>
+      </c>
+      <c r="J120" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>39895</v>
+      </c>
+      <c r="B121" t="s">
+        <v>622</v>
+      </c>
+      <c r="C121">
+        <v>-712.76</v>
+      </c>
+      <c r="D121" t="s">
+        <v>598</v>
+      </c>
+      <c r="E121">
+        <v>317.36</v>
+      </c>
+      <c r="F121">
+        <v>-1030.1199999999999</v>
+      </c>
+      <c r="G121">
+        <v>100</v>
+      </c>
+      <c r="H121">
+        <v>50</v>
+      </c>
+      <c r="I121">
+        <v>50</v>
+      </c>
+      <c r="J121" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>39896</v>
+      </c>
+      <c r="B122" t="s">
+        <v>558</v>
+      </c>
+      <c r="C122">
+        <v>987.68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>598</v>
+      </c>
+      <c r="E122">
+        <v>317.36</v>
+      </c>
+      <c r="F122">
+        <v>670.31</v>
+      </c>
+      <c r="G122">
+        <v>100</v>
+      </c>
+      <c r="H122">
+        <v>50</v>
+      </c>
+      <c r="I122">
+        <v>50</v>
+      </c>
+      <c r="J122" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>39898</v>
+      </c>
+      <c r="B123" t="s">
+        <v>649</v>
+      </c>
+      <c r="C123">
+        <v>-480.79</v>
+      </c>
+      <c r="D123" t="s">
+        <v>598</v>
+      </c>
+      <c r="E123">
+        <v>317.36</v>
+      </c>
+      <c r="F123">
+        <v>-798.15</v>
+      </c>
+      <c r="G123">
+        <v>100</v>
+      </c>
+      <c r="H123">
+        <v>50</v>
+      </c>
+      <c r="I123">
+        <v>50</v>
+      </c>
+      <c r="J123" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>40014</v>
+      </c>
+      <c r="B124" t="s">
+        <v>128</v>
+      </c>
+      <c r="C124">
+        <v>4879.42</v>
+      </c>
+      <c r="D124" t="s">
+        <v>545</v>
+      </c>
+      <c r="E124">
+        <v>512.29</v>
+      </c>
+      <c r="F124">
+        <v>4367.13</v>
+      </c>
+      <c r="G124">
+        <v>100</v>
+      </c>
+      <c r="H124">
+        <v>50</v>
+      </c>
+      <c r="I124">
+        <v>50</v>
+      </c>
+      <c r="J124" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>40014</v>
+      </c>
+      <c r="B125" t="s">
+        <v>622</v>
+      </c>
+      <c r="C125">
+        <v>42.61</v>
+      </c>
+      <c r="D125" t="s">
+        <v>545</v>
+      </c>
+      <c r="E125">
+        <v>512.29</v>
+      </c>
+      <c r="F125">
+        <v>-469.67</v>
+      </c>
+      <c r="G125">
+        <v>100</v>
+      </c>
+      <c r="H125">
+        <v>50</v>
+      </c>
+      <c r="I125">
+        <v>50</v>
+      </c>
+      <c r="J125" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>40017</v>
+      </c>
+      <c r="B126" t="s">
+        <v>427</v>
+      </c>
+      <c r="C126">
+        <v>1290.76</v>
+      </c>
+      <c r="D126" t="s">
+        <v>214</v>
+      </c>
+      <c r="E126">
+        <v>8258.4500000000007</v>
+      </c>
+      <c r="F126">
+        <v>-6967.69</v>
+      </c>
+      <c r="G126">
+        <v>100</v>
+      </c>
+      <c r="H126">
+        <v>50</v>
+      </c>
+      <c r="I126">
+        <v>50</v>
+      </c>
+      <c r="J126" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>40795</v>
+      </c>
+      <c r="B127" t="s">
+        <v>369</v>
+      </c>
+      <c r="C127">
+        <v>-2616.4699999999998</v>
+      </c>
+      <c r="D127" t="s">
+        <v>150</v>
+      </c>
+      <c r="E127">
+        <v>1232.51</v>
+      </c>
+      <c r="F127">
+        <v>-3848.99</v>
+      </c>
+      <c r="G127">
+        <v>100</v>
+      </c>
+      <c r="H127">
+        <v>50</v>
+      </c>
+      <c r="I127">
+        <v>50</v>
+      </c>
+      <c r="J127" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>40800</v>
+      </c>
+      <c r="B128" t="s">
+        <v>558</v>
+      </c>
+      <c r="C128">
+        <v>-647.92999999999995</v>
+      </c>
+      <c r="D128" t="s">
+        <v>150</v>
+      </c>
+      <c r="E128">
+        <v>1232.51</v>
+      </c>
+      <c r="F128">
+        <v>-1880.44</v>
+      </c>
+      <c r="G128">
+        <v>100</v>
+      </c>
+      <c r="H128">
+        <v>50</v>
+      </c>
+      <c r="I128">
+        <v>50</v>
+      </c>
+      <c r="J128" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>40802</v>
+      </c>
+      <c r="B129" t="s">
+        <v>101</v>
+      </c>
+      <c r="C129">
+        <v>-569.02</v>
+      </c>
+      <c r="D129" t="s">
+        <v>150</v>
+      </c>
+      <c r="E129">
+        <v>1232.51</v>
+      </c>
+      <c r="F129">
+        <v>-1801.54</v>
+      </c>
+      <c r="G129">
+        <v>100</v>
+      </c>
+      <c r="H129">
+        <v>50</v>
+      </c>
+      <c r="I129">
+        <v>50</v>
+      </c>
+      <c r="J129" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>40802</v>
+      </c>
+      <c r="B130" t="s">
+        <v>545</v>
+      </c>
+      <c r="C130">
+        <v>-1207.99</v>
+      </c>
+      <c r="D130" t="s">
+        <v>150</v>
+      </c>
+      <c r="E130">
+        <v>1232.51</v>
+      </c>
+      <c r="F130">
+        <v>-2440.5100000000002</v>
+      </c>
+      <c r="G130">
+        <v>100</v>
+      </c>
+      <c r="H130">
+        <v>50</v>
+      </c>
+      <c r="I130">
+        <v>50</v>
+      </c>
+      <c r="J130" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>40828</v>
+      </c>
+      <c r="B131" t="s">
+        <v>622</v>
+      </c>
+      <c r="C131">
+        <v>3189.57</v>
+      </c>
+      <c r="D131" t="s">
+        <v>369</v>
+      </c>
+      <c r="E131">
+        <v>288.41000000000003</v>
+      </c>
+      <c r="F131">
+        <v>2901.15</v>
+      </c>
+      <c r="G131">
+        <v>100</v>
+      </c>
+      <c r="H131">
+        <v>50</v>
+      </c>
+      <c r="I131">
+        <v>50</v>
+      </c>
+      <c r="J131" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>40837</v>
+      </c>
+      <c r="B132" t="s">
+        <v>243</v>
+      </c>
+      <c r="C132">
+        <v>-694.77</v>
+      </c>
+      <c r="D132" t="s">
+        <v>369</v>
+      </c>
+      <c r="E132">
+        <v>288.41000000000003</v>
+      </c>
+      <c r="F132">
+        <v>-983.18</v>
+      </c>
+      <c r="G132">
+        <v>100</v>
+      </c>
+      <c r="H132">
+        <v>50</v>
+      </c>
+      <c r="I132">
+        <v>50</v>
+      </c>
+      <c r="J132" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>40840</v>
+      </c>
+      <c r="B133" t="s">
+        <v>427</v>
+      </c>
+      <c r="C133">
+        <v>-14.98</v>
+      </c>
+      <c r="D133" t="s">
+        <v>369</v>
+      </c>
+      <c r="E133">
+        <v>288.41000000000003</v>
+      </c>
+      <c r="F133">
+        <v>-303.39</v>
+      </c>
+      <c r="G133">
+        <v>100</v>
+      </c>
+      <c r="H133">
+        <v>50</v>
+      </c>
+      <c r="I133">
+        <v>50</v>
+      </c>
+      <c r="J133" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>42431</v>
+      </c>
+      <c r="B134" t="s">
+        <v>598</v>
+      </c>
+      <c r="C134">
+        <v>483.86</v>
+      </c>
+      <c r="D134" t="s">
+        <v>369</v>
+      </c>
+      <c r="E134">
+        <v>1628.86</v>
+      </c>
+      <c r="F134">
+        <v>-1145</v>
+      </c>
+      <c r="G134">
+        <v>100</v>
+      </c>
+      <c r="H134">
+        <v>50</v>
+      </c>
+      <c r="I134">
+        <v>50</v>
+      </c>
+      <c r="J134" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>42432</v>
+      </c>
+      <c r="B135" t="s">
+        <v>476</v>
+      </c>
+      <c r="C135">
+        <v>857.19</v>
+      </c>
+      <c r="D135" t="s">
+        <v>369</v>
+      </c>
+      <c r="E135">
+        <v>1628.86</v>
+      </c>
+      <c r="F135">
+        <v>-771.66</v>
+      </c>
+      <c r="G135">
+        <v>100</v>
+      </c>
+      <c r="H135">
+        <v>50</v>
+      </c>
+      <c r="I135">
+        <v>50</v>
+      </c>
+      <c r="J135" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>42436</v>
+      </c>
+      <c r="B136" t="s">
+        <v>322</v>
+      </c>
+      <c r="C136">
+        <v>-1012.71</v>
+      </c>
+      <c r="D136" t="s">
+        <v>369</v>
+      </c>
+      <c r="E136">
+        <v>1628.86</v>
+      </c>
+      <c r="F136">
+        <v>-2641.57</v>
+      </c>
+      <c r="G136">
+        <v>100</v>
+      </c>
+      <c r="H136">
+        <v>50</v>
+      </c>
+      <c r="I136">
+        <v>50</v>
+      </c>
+      <c r="J136" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>42438</v>
+      </c>
+      <c r="B137" t="s">
+        <v>622</v>
+      </c>
+      <c r="C137">
+        <v>-577.30999999999995</v>
+      </c>
+      <c r="D137" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137">
+        <v>2948.67</v>
+      </c>
+      <c r="F137">
+        <v>-3525.98</v>
+      </c>
+      <c r="G137">
+        <v>100</v>
+      </c>
+      <c r="H137">
+        <v>50</v>
+      </c>
+      <c r="I137">
+        <v>50</v>
+      </c>
+      <c r="J137" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>43473</v>
+      </c>
+      <c r="B138" t="s">
+        <v>476</v>
+      </c>
+      <c r="C138">
+        <v>4763.5600000000004</v>
+      </c>
+      <c r="D138" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138">
+        <v>-57.6</v>
+      </c>
+      <c r="F138">
+        <v>4821.16</v>
+      </c>
+      <c r="G138">
+        <v>100</v>
+      </c>
+      <c r="H138">
+        <v>50</v>
+      </c>
+      <c r="I138">
+        <v>50</v>
+      </c>
+      <c r="J138" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>43473</v>
+      </c>
+      <c r="B139" t="s">
+        <v>507</v>
+      </c>
+      <c r="C139">
+        <v>413.09</v>
+      </c>
+      <c r="D139" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139">
+        <v>-57.6</v>
+      </c>
+      <c r="F139">
+        <v>470.69</v>
+      </c>
+      <c r="G139">
+        <v>100</v>
+      </c>
+      <c r="H139">
+        <v>50</v>
+      </c>
+      <c r="I139">
+        <v>50</v>
+      </c>
+      <c r="J139" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>43473</v>
+      </c>
+      <c r="B140" t="s">
+        <v>545</v>
+      </c>
+      <c r="C140">
+        <v>1339.78</v>
+      </c>
+      <c r="D140" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140">
+        <v>-57.6</v>
+      </c>
+      <c r="F140">
+        <v>1397.38</v>
+      </c>
+      <c r="G140">
+        <v>100</v>
+      </c>
+      <c r="H140">
+        <v>50</v>
+      </c>
+      <c r="I140">
+        <v>50</v>
+      </c>
+      <c r="J140" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>43474</v>
+      </c>
+      <c r="B141" t="s">
+        <v>214</v>
+      </c>
+      <c r="C141">
+        <v>322.68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141">
+        <v>-57.6</v>
+      </c>
+      <c r="F141">
+        <v>380.29</v>
+      </c>
+      <c r="G141">
+        <v>100</v>
+      </c>
+      <c r="H141">
+        <v>50</v>
+      </c>
+      <c r="I141">
+        <v>50</v>
+      </c>
+      <c r="J141" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>43476</v>
+      </c>
+      <c r="B142" t="s">
+        <v>128</v>
+      </c>
+      <c r="C142">
+        <v>106.64</v>
+      </c>
+      <c r="D142" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142">
+        <v>-57.6</v>
+      </c>
+      <c r="F142">
+        <v>164.24</v>
+      </c>
+      <c r="G142">
+        <v>100</v>
+      </c>
+      <c r="H142">
+        <v>50</v>
+      </c>
+      <c r="I142">
+        <v>50</v>
+      </c>
+      <c r="J142" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>43479</v>
+      </c>
+      <c r="B143" t="s">
+        <v>369</v>
+      </c>
+      <c r="C143">
+        <v>-5172.1499999999996</v>
+      </c>
+      <c r="D143" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143">
+        <v>-57.6</v>
+      </c>
+      <c r="F143">
+        <v>-5114.54</v>
+      </c>
+      <c r="G143">
+        <v>100</v>
+      </c>
+      <c r="H143">
+        <v>50</v>
+      </c>
+      <c r="I143">
+        <v>50</v>
+      </c>
+      <c r="J143" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>43480</v>
+      </c>
+      <c r="B144" t="s">
+        <v>573</v>
+      </c>
+      <c r="C144">
+        <v>358.81</v>
+      </c>
+      <c r="D144" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144">
+        <v>-57.6</v>
+      </c>
+      <c r="F144">
+        <v>416.41</v>
+      </c>
+      <c r="G144">
+        <v>100</v>
+      </c>
+      <c r="H144">
+        <v>50</v>
+      </c>
+      <c r="I144">
+        <v>50</v>
+      </c>
+      <c r="J144" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B145" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145">
+        <v>5684.81</v>
+      </c>
+      <c r="D145" t="s">
+        <v>101</v>
+      </c>
+      <c r="E145">
+        <v>-425.21</v>
+      </c>
+      <c r="F145">
+        <v>6110.02</v>
+      </c>
+      <c r="G145">
+        <v>100</v>
+      </c>
+      <c r="H145">
+        <v>50</v>
+      </c>
+      <c r="I145">
+        <v>50</v>
+      </c>
+      <c r="J145" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B146" t="s">
+        <v>295</v>
+      </c>
+      <c r="C146">
+        <v>-81.17</v>
+      </c>
+      <c r="D146" t="s">
+        <v>101</v>
+      </c>
+      <c r="E146">
+        <v>-425.21</v>
+      </c>
+      <c r="F146">
+        <v>344.03</v>
+      </c>
+      <c r="G146">
+        <v>100</v>
+      </c>
+      <c r="H146">
+        <v>50</v>
+      </c>
+      <c r="I146">
+        <v>50</v>
+      </c>
+      <c r="J146" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B147" t="s">
+        <v>649</v>
+      </c>
+      <c r="C147">
+        <v>-404.47</v>
+      </c>
+      <c r="D147" t="s">
+        <v>101</v>
+      </c>
+      <c r="E147">
+        <v>-425.21</v>
+      </c>
+      <c r="F147">
+        <v>20.74</v>
+      </c>
+      <c r="G147">
+        <v>100</v>
+      </c>
+      <c r="H147">
+        <v>50</v>
+      </c>
+      <c r="I147">
+        <v>50</v>
+      </c>
+      <c r="J147" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B148" t="s">
+        <v>558</v>
+      </c>
+      <c r="C148">
+        <v>1099.67</v>
+      </c>
+      <c r="D148" t="s">
+        <v>101</v>
+      </c>
+      <c r="E148">
+        <v>-425.21</v>
+      </c>
+      <c r="F148">
+        <v>1524.88</v>
+      </c>
+      <c r="G148">
+        <v>100</v>
+      </c>
+      <c r="H148">
+        <v>50</v>
+      </c>
+      <c r="I148">
+        <v>50</v>
+      </c>
+      <c r="J148" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B149" t="s">
+        <v>622</v>
+      </c>
+      <c r="C149">
+        <v>330.73</v>
+      </c>
+      <c r="D149" t="s">
+        <v>101</v>
+      </c>
+      <c r="E149">
+        <v>-425.21</v>
+      </c>
+      <c r="F149">
+        <v>755.94</v>
+      </c>
+      <c r="G149">
+        <v>100</v>
+      </c>
+      <c r="H149">
+        <v>50</v>
+      </c>
+      <c r="I149">
+        <v>50</v>
+      </c>
+      <c r="J149" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B150" t="s">
+        <v>214</v>
+      </c>
+      <c r="C150">
+        <v>1230.71</v>
+      </c>
+      <c r="D150" t="s">
+        <v>101</v>
+      </c>
+      <c r="E150">
+        <v>-425.21</v>
+      </c>
+      <c r="F150">
+        <v>1655.92</v>
+      </c>
+      <c r="G150">
+        <v>100</v>
+      </c>
+      <c r="H150">
+        <v>50</v>
+      </c>
+      <c r="I150">
+        <v>50</v>
+      </c>
+      <c r="J150" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B151" t="s">
+        <v>322</v>
+      </c>
+      <c r="C151">
+        <v>8703.4500000000007</v>
+      </c>
+      <c r="D151" t="s">
+        <v>101</v>
+      </c>
+      <c r="E151">
+        <v>-425.21</v>
+      </c>
+      <c r="F151">
+        <v>9128.66</v>
+      </c>
+      <c r="G151">
+        <v>100</v>
+      </c>
+      <c r="H151">
+        <v>50</v>
+      </c>
+      <c r="I151">
+        <v>50</v>
+      </c>
+      <c r="J151" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B152" t="s">
+        <v>369</v>
+      </c>
+      <c r="C152">
+        <v>35256.050000000003</v>
+      </c>
+      <c r="D152" t="s">
+        <v>101</v>
+      </c>
+      <c r="E152">
+        <v>-425.21</v>
+      </c>
+      <c r="F152">
+        <v>35681.26</v>
+      </c>
+      <c r="G152">
+        <v>100</v>
+      </c>
+      <c r="H152">
+        <v>50</v>
+      </c>
+      <c r="I152">
+        <v>50</v>
+      </c>
+      <c r="J152" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B153" t="s">
+        <v>476</v>
+      </c>
+      <c r="C153">
+        <v>5613.52</v>
+      </c>
+      <c r="D153" t="s">
+        <v>101</v>
+      </c>
+      <c r="E153">
+        <v>-425.21</v>
+      </c>
+      <c r="F153">
+        <v>6038.73</v>
+      </c>
+      <c r="G153">
+        <v>100</v>
+      </c>
+      <c r="H153">
+        <v>50</v>
+      </c>
+      <c r="I153">
+        <v>50</v>
+      </c>
+      <c r="J153" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B154" t="s">
+        <v>116</v>
+      </c>
+      <c r="C154">
+        <v>585.27</v>
+      </c>
+      <c r="D154" t="s">
+        <v>309</v>
+      </c>
+      <c r="E154">
+        <v>-517.54999999999995</v>
+      </c>
+      <c r="F154">
+        <v>1102.82</v>
+      </c>
+      <c r="G154">
+        <v>100</v>
+      </c>
+      <c r="H154">
+        <v>50</v>
+      </c>
+      <c r="I154">
+        <v>50</v>
+      </c>
+      <c r="J154" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B155" t="s">
+        <v>545</v>
+      </c>
+      <c r="C155">
+        <v>1016.43</v>
+      </c>
+      <c r="D155" t="s">
+        <v>309</v>
+      </c>
+      <c r="E155">
+        <v>-517.54999999999995</v>
+      </c>
+      <c r="F155">
+        <v>1533.97</v>
+      </c>
+      <c r="G155">
+        <v>100</v>
+      </c>
+      <c r="H155">
+        <v>50</v>
+      </c>
+      <c r="I155">
+        <v>50</v>
+      </c>
+      <c r="J155" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B156" t="s">
+        <v>171</v>
+      </c>
+      <c r="C156">
+        <v>-109.4</v>
+      </c>
+      <c r="D156" t="s">
+        <v>194</v>
+      </c>
+      <c r="E156">
+        <v>253.72</v>
+      </c>
+      <c r="F156">
+        <v>-363.12</v>
+      </c>
+      <c r="G156">
+        <v>100</v>
+      </c>
+      <c r="H156">
+        <v>50</v>
+      </c>
+      <c r="I156">
+        <v>50</v>
+      </c>
+      <c r="J156" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B157" t="s">
+        <v>280</v>
+      </c>
+      <c r="C157">
+        <v>224.69</v>
+      </c>
+      <c r="D157" t="s">
+        <v>573</v>
+      </c>
+      <c r="E157">
+        <v>1256.81</v>
+      </c>
+      <c r="F157">
+        <v>-1032.1199999999999</v>
+      </c>
+      <c r="G157">
+        <v>100</v>
+      </c>
+      <c r="H157">
+        <v>50</v>
+      </c>
+      <c r="I157">
+        <v>50</v>
+      </c>
+      <c r="J157" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B158" t="s">
+        <v>77</v>
+      </c>
+      <c r="C158">
+        <v>981.62</v>
+      </c>
+      <c r="D158" t="s">
+        <v>573</v>
+      </c>
+      <c r="E158">
+        <v>1256.81</v>
+      </c>
+      <c r="F158">
+        <v>-275.19</v>
+      </c>
+      <c r="G158">
+        <v>100</v>
+      </c>
+      <c r="H158">
+        <v>50</v>
+      </c>
+      <c r="I158">
+        <v>50</v>
+      </c>
+      <c r="J158" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B159" t="s">
+        <v>440</v>
+      </c>
+      <c r="C159">
+        <v>-1702.65</v>
+      </c>
+      <c r="D159" t="s">
+        <v>573</v>
+      </c>
+      <c r="E159">
+        <v>1256.81</v>
+      </c>
+      <c r="F159">
+        <v>-2959.46</v>
+      </c>
+      <c r="G159">
+        <v>80.11</v>
+      </c>
+      <c r="H159">
+        <v>50</v>
+      </c>
+      <c r="I159">
+        <v>30.11</v>
+      </c>
+      <c r="J159" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B160" t="s">
+        <v>507</v>
+      </c>
+      <c r="C160">
+        <v>-326.38</v>
+      </c>
+      <c r="D160" t="s">
+        <v>128</v>
+      </c>
+      <c r="E160">
+        <v>2385.39</v>
+      </c>
+      <c r="F160">
+        <v>-2711.77</v>
+      </c>
+      <c r="G160">
+        <v>100</v>
+      </c>
+      <c r="H160">
+        <v>50</v>
+      </c>
+      <c r="I160">
+        <v>50</v>
+      </c>
+      <c r="J160" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B161" t="s">
+        <v>101</v>
+      </c>
+      <c r="C161">
+        <v>549.53</v>
+      </c>
+      <c r="D161" t="s">
+        <v>77</v>
+      </c>
+      <c r="E161">
+        <v>1031.6199999999999</v>
+      </c>
+      <c r="F161">
+        <v>-482.1</v>
+      </c>
+      <c r="G161">
+        <v>100</v>
+      </c>
+      <c r="H161">
+        <v>50</v>
+      </c>
+      <c r="I161">
+        <v>50</v>
+      </c>
+      <c r="J161" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B162" t="s">
+        <v>622</v>
+      </c>
+      <c r="C162">
+        <v>-710</v>
+      </c>
+      <c r="D162" t="s">
+        <v>77</v>
+      </c>
+      <c r="E162">
+        <v>1031.6199999999999</v>
+      </c>
+      <c r="F162">
+        <v>-1741.62</v>
+      </c>
+      <c r="G162">
+        <v>100</v>
+      </c>
+      <c r="H162">
+        <v>50</v>
+      </c>
+      <c r="I162">
+        <v>50</v>
+      </c>
+      <c r="J162" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B163" t="s">
+        <v>573</v>
+      </c>
+      <c r="C163">
+        <v>1802.39</v>
+      </c>
+      <c r="D163" t="s">
+        <v>77</v>
+      </c>
+      <c r="E163">
+        <v>1031.6199999999999</v>
+      </c>
+      <c r="F163">
+        <v>770.76</v>
+      </c>
+      <c r="G163">
+        <v>100</v>
+      </c>
+      <c r="H163">
+        <v>50</v>
+      </c>
+      <c r="I163">
+        <v>50</v>
+      </c>
+      <c r="J163" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>44641</v>
+      </c>
+      <c r="B164" t="s">
+        <v>369</v>
+      </c>
+      <c r="C164">
+        <v>-7983.07</v>
+      </c>
+      <c r="D164" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164">
+        <v>-947.17</v>
+      </c>
+      <c r="F164">
+        <v>-7035.9</v>
+      </c>
+      <c r="G164">
+        <v>100</v>
+      </c>
+      <c r="H164">
+        <v>50</v>
+      </c>
+      <c r="I164">
+        <v>50</v>
+      </c>
+      <c r="J164" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>44642</v>
+      </c>
+      <c r="B165" t="s">
+        <v>476</v>
+      </c>
+      <c r="C165">
+        <v>-1145.18</v>
+      </c>
+      <c r="D165" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165">
+        <v>-947.17</v>
+      </c>
+      <c r="F165">
+        <v>-198.01</v>
+      </c>
+      <c r="G165">
+        <v>100</v>
+      </c>
+      <c r="H165">
+        <v>50</v>
+      </c>
+      <c r="I165">
+        <v>50</v>
+      </c>
+      <c r="J165" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>44643</v>
+      </c>
+      <c r="B166" t="s">
+        <v>322</v>
+      </c>
+      <c r="C166">
+        <v>-5610.13</v>
+      </c>
+      <c r="D166" t="s">
+        <v>14</v>
+      </c>
+      <c r="E166">
+        <v>-947.17</v>
+      </c>
+      <c r="F166">
+        <v>-4662.96</v>
+      </c>
+      <c r="G166">
+        <v>100</v>
+      </c>
+      <c r="H166">
+        <v>50</v>
+      </c>
+      <c r="I166">
+        <v>50</v>
+      </c>
+      <c r="J166" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>44643</v>
+      </c>
+      <c r="B167" t="s">
+        <v>573</v>
+      </c>
+      <c r="C167">
+        <v>-1407.28</v>
+      </c>
+      <c r="D167" t="s">
+        <v>14</v>
+      </c>
+      <c r="E167">
+        <v>-947.17</v>
+      </c>
+      <c r="F167">
+        <v>-460.1</v>
+      </c>
+      <c r="G167">
+        <v>100</v>
+      </c>
+      <c r="H167">
+        <v>50</v>
+      </c>
+      <c r="I167">
+        <v>50</v>
+      </c>
+      <c r="J167" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>44718</v>
+      </c>
+      <c r="B168" t="s">
+        <v>194</v>
+      </c>
+      <c r="C168">
+        <v>-824.09</v>
+      </c>
+      <c r="D168" t="s">
+        <v>440</v>
+      </c>
+      <c r="E168">
+        <v>-1366.62</v>
+      </c>
+      <c r="F168">
+        <v>542.54</v>
+      </c>
+      <c r="G168">
+        <v>100</v>
+      </c>
+      <c r="H168">
+        <v>50</v>
+      </c>
+      <c r="I168">
+        <v>50</v>
+      </c>
+      <c r="J168" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>44762</v>
+      </c>
+      <c r="B169" t="s">
+        <v>369</v>
+      </c>
+      <c r="C169">
+        <v>-3209.45</v>
+      </c>
+      <c r="D169" t="s">
+        <v>200</v>
+      </c>
+      <c r="E169">
+        <v>-188.83</v>
+      </c>
+      <c r="F169">
+        <v>-3020.62</v>
+      </c>
+      <c r="G169">
+        <v>64.38</v>
+      </c>
+      <c r="H169">
+        <v>50</v>
+      </c>
+      <c r="I169">
+        <v>14.38</v>
+      </c>
+      <c r="J169" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>44762</v>
+      </c>
+      <c r="B170" t="s">
+        <v>573</v>
+      </c>
+      <c r="C170">
+        <v>-785.35</v>
+      </c>
+      <c r="D170" t="s">
+        <v>200</v>
+      </c>
+      <c r="E170">
+        <v>-188.83</v>
+      </c>
+      <c r="F170">
+        <v>-596.52</v>
+      </c>
+      <c r="G170">
+        <v>64.38</v>
+      </c>
+      <c r="H170">
+        <v>50</v>
+      </c>
+      <c r="I170">
+        <v>14.38</v>
+      </c>
+      <c r="J170" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>44763</v>
+      </c>
+      <c r="B171" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171">
+        <v>-966.39</v>
+      </c>
+      <c r="D171" t="s">
+        <v>200</v>
+      </c>
+      <c r="E171">
+        <v>-188.83</v>
+      </c>
+      <c r="F171">
+        <v>-777.56</v>
+      </c>
+      <c r="G171">
+        <v>62.08</v>
+      </c>
+      <c r="H171">
+        <v>50</v>
+      </c>
+      <c r="I171">
+        <v>12.08</v>
+      </c>
+      <c r="J171" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>44763</v>
+      </c>
+      <c r="B172" t="s">
+        <v>476</v>
+      </c>
+      <c r="C172">
+        <v>-1728.7</v>
+      </c>
+      <c r="D172" t="s">
+        <v>200</v>
+      </c>
+      <c r="E172">
+        <v>-188.83</v>
+      </c>
+      <c r="F172">
+        <v>-1539.87</v>
+      </c>
+      <c r="G172">
+        <v>62.08</v>
+      </c>
+      <c r="H172">
+        <v>50</v>
+      </c>
+      <c r="I172">
+        <v>12.08</v>
+      </c>
+      <c r="J172" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>44776</v>
+      </c>
+      <c r="B173" t="s">
+        <v>194</v>
+      </c>
+      <c r="C173">
+        <v>-602.57000000000005</v>
+      </c>
+      <c r="D173" t="s">
+        <v>214</v>
+      </c>
+      <c r="E173">
+        <v>95.91</v>
+      </c>
+      <c r="F173">
+        <v>-698.48</v>
+      </c>
+      <c r="G173">
+        <v>100</v>
+      </c>
+      <c r="H173">
+        <v>50</v>
+      </c>
+      <c r="I173">
+        <v>50</v>
+      </c>
+      <c r="J173" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>44853</v>
+      </c>
+      <c r="B174" t="s">
+        <v>322</v>
+      </c>
+      <c r="C174">
+        <v>2570.06</v>
+      </c>
+      <c r="D174" t="s">
+        <v>507</v>
+      </c>
+      <c r="E174">
+        <v>1512.18</v>
+      </c>
+      <c r="F174">
+        <v>1057.8900000000001</v>
+      </c>
+      <c r="G174">
+        <v>100</v>
+      </c>
+      <c r="H174">
+        <v>50</v>
+      </c>
+      <c r="I174">
+        <v>50</v>
+      </c>
+      <c r="J174" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>44854</v>
+      </c>
+      <c r="B175" t="s">
+        <v>77</v>
+      </c>
+      <c r="C175">
+        <v>3455.23</v>
+      </c>
+      <c r="D175" t="s">
+        <v>507</v>
+      </c>
+      <c r="E175">
+        <v>1512.18</v>
+      </c>
+      <c r="F175">
+        <v>1943.06</v>
+      </c>
+      <c r="G175">
+        <v>100</v>
+      </c>
+      <c r="H175">
+        <v>50</v>
+      </c>
+      <c r="I175">
+        <v>50</v>
+      </c>
+      <c r="J175" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B176" t="s">
+        <v>427</v>
+      </c>
+      <c r="C176">
+        <v>292.41000000000003</v>
+      </c>
+      <c r="D176" t="s">
+        <v>507</v>
+      </c>
+      <c r="E176">
+        <v>1512.18</v>
+      </c>
+      <c r="F176">
+        <v>-1219.76</v>
+      </c>
+      <c r="G176">
+        <v>100</v>
+      </c>
+      <c r="H176">
+        <v>50</v>
+      </c>
+      <c r="I176">
+        <v>50</v>
+      </c>
+      <c r="J176" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>44859</v>
+      </c>
+      <c r="B177" t="s">
+        <v>573</v>
+      </c>
+      <c r="C177">
+        <v>-1155.9000000000001</v>
+      </c>
+      <c r="D177" t="s">
+        <v>507</v>
+      </c>
+      <c r="E177">
+        <v>1512.18</v>
+      </c>
+      <c r="F177">
+        <v>-2668.08</v>
+      </c>
+      <c r="G177">
+        <v>100</v>
+      </c>
+      <c r="H177">
+        <v>50</v>
+      </c>
+      <c r="I177">
+        <v>50</v>
+      </c>
+      <c r="J177" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>44861</v>
+      </c>
+      <c r="B178" t="s">
+        <v>369</v>
+      </c>
+      <c r="C178">
+        <v>13257.54</v>
+      </c>
+      <c r="D178" t="s">
+        <v>507</v>
+      </c>
+      <c r="E178">
+        <v>1512.18</v>
+      </c>
+      <c r="F178">
+        <v>11745.36</v>
+      </c>
+      <c r="G178">
+        <v>100</v>
+      </c>
+      <c r="H178">
+        <v>50</v>
+      </c>
+      <c r="I178">
+        <v>50</v>
+      </c>
+      <c r="J178" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>44861</v>
+      </c>
+      <c r="B179" t="s">
+        <v>476</v>
+      </c>
+      <c r="C179">
+        <v>289.85000000000002</v>
+      </c>
+      <c r="D179" t="s">
+        <v>507</v>
+      </c>
+      <c r="E179">
+        <v>1512.18</v>
+      </c>
+      <c r="F179">
+        <v>-1222.32</v>
+      </c>
+      <c r="G179">
+        <v>100</v>
+      </c>
+      <c r="H179">
+        <v>50</v>
+      </c>
+      <c r="I179">
+        <v>50</v>
+      </c>
+      <c r="J179" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>44862</v>
+      </c>
+      <c r="B180" t="s">
+        <v>200</v>
+      </c>
+      <c r="C180">
+        <v>-883.84</v>
+      </c>
+      <c r="D180" t="s">
+        <v>507</v>
+      </c>
+      <c r="E180">
+        <v>1512.18</v>
+      </c>
+      <c r="F180">
+        <v>-2396.0100000000002</v>
+      </c>
+      <c r="G180">
+        <v>81.97</v>
+      </c>
+      <c r="H180">
+        <v>50</v>
+      </c>
+      <c r="I180">
+        <v>31.97</v>
+      </c>
+      <c r="J180" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>44862</v>
+      </c>
+      <c r="B181" t="s">
+        <v>440</v>
+      </c>
+      <c r="C181">
+        <v>-701.56</v>
+      </c>
+      <c r="D181" t="s">
+        <v>507</v>
+      </c>
+      <c r="E181">
+        <v>1512.18</v>
+      </c>
+      <c r="F181">
+        <v>-2213.7399999999998</v>
+      </c>
+      <c r="G181">
+        <v>81.97</v>
+      </c>
+      <c r="H181">
+        <v>50</v>
+      </c>
+      <c r="I181">
+        <v>31.97</v>
+      </c>
+      <c r="J181" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>44937</v>
+      </c>
+      <c r="B182" t="s">
+        <v>200</v>
+      </c>
+      <c r="C182">
+        <v>534.66999999999996</v>
+      </c>
+      <c r="D182" t="s">
+        <v>322</v>
+      </c>
+      <c r="E182">
+        <v>2240.3200000000002</v>
+      </c>
+      <c r="F182">
+        <v>-1705.65</v>
+      </c>
+      <c r="G182">
+        <v>100</v>
+      </c>
+      <c r="H182">
+        <v>50</v>
+      </c>
+      <c r="I182">
+        <v>50</v>
+      </c>
+      <c r="J182" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>44939</v>
+      </c>
+      <c r="B183" t="s">
+        <v>369</v>
+      </c>
+      <c r="C183">
+        <v>153406.16</v>
+      </c>
+      <c r="D183" t="s">
+        <v>322</v>
+      </c>
+      <c r="E183">
+        <v>2240.3200000000002</v>
+      </c>
+      <c r="F183">
+        <v>151165.84</v>
+      </c>
+      <c r="G183">
+        <v>100</v>
+      </c>
+      <c r="H183">
+        <v>50</v>
+      </c>
+      <c r="I183">
+        <v>50</v>
+      </c>
+      <c r="J183" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>44943</v>
+      </c>
+      <c r="B184" t="s">
+        <v>476</v>
+      </c>
+      <c r="C184">
+        <v>467.43</v>
+      </c>
+      <c r="D184" t="s">
+        <v>322</v>
+      </c>
+      <c r="E184">
+        <v>2240.3200000000002</v>
+      </c>
+      <c r="F184">
+        <v>-1772.89</v>
+      </c>
+      <c r="G184">
+        <v>100</v>
+      </c>
+      <c r="H184">
+        <v>50</v>
+      </c>
+      <c r="I184">
+        <v>50</v>
+      </c>
+      <c r="J184" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>45020</v>
+      </c>
+      <c r="B185" t="s">
+        <v>507</v>
+      </c>
+      <c r="C185">
+        <v>-473.9</v>
+      </c>
+      <c r="D185" t="s">
+        <v>14</v>
+      </c>
+      <c r="E185">
+        <v>-128.80000000000001</v>
+      </c>
+      <c r="F185">
+        <v>-345.1</v>
+      </c>
+      <c r="G185">
+        <v>100</v>
+      </c>
+      <c r="H185">
+        <v>50</v>
+      </c>
+      <c r="I185">
+        <v>50</v>
+      </c>
+      <c r="J185" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>45236</v>
+      </c>
+      <c r="B186" t="s">
+        <v>369</v>
+      </c>
+      <c r="C186">
+        <v>177939.48</v>
+      </c>
+      <c r="D186" t="s">
+        <v>322</v>
+      </c>
+      <c r="E186">
+        <v>12839.9</v>
+      </c>
+      <c r="F186">
+        <v>165099.57999999999</v>
+      </c>
+      <c r="G186">
+        <v>100</v>
+      </c>
+      <c r="H186">
+        <v>50</v>
+      </c>
+      <c r="I186">
+        <v>50</v>
+      </c>
+      <c r="J186" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>45523</v>
+      </c>
+      <c r="B187" t="s">
+        <v>369</v>
+      </c>
+      <c r="C187">
+        <v>-28037.919999999998</v>
+      </c>
+      <c r="D187" t="s">
+        <v>476</v>
+      </c>
+      <c r="E187">
+        <v>2532.65</v>
+      </c>
+      <c r="F187">
+        <v>-30570.57</v>
+      </c>
+      <c r="G187">
+        <v>100</v>
+      </c>
+      <c r="H187">
+        <v>50</v>
+      </c>
+      <c r="I187">
+        <v>50</v>
+      </c>
+      <c r="J187" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>45771</v>
+      </c>
+      <c r="B188" t="s">
+        <v>573</v>
+      </c>
+      <c r="C188">
+        <v>762.28</v>
+      </c>
+      <c r="D188" t="s">
+        <v>77</v>
+      </c>
+      <c r="E188">
+        <v>2137.9</v>
+      </c>
+      <c r="F188">
+        <v>-1375.61</v>
+      </c>
+      <c r="G188">
+        <v>100</v>
+      </c>
+      <c r="H188">
+        <v>50</v>
+      </c>
+      <c r="I188">
+        <v>50</v>
+      </c>
+      <c r="J188" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>45772</v>
+      </c>
+      <c r="B189" t="s">
+        <v>243</v>
+      </c>
+      <c r="C189">
+        <v>2312</v>
+      </c>
+      <c r="D189" t="s">
+        <v>77</v>
+      </c>
+      <c r="E189">
+        <v>2137.9</v>
+      </c>
+      <c r="F189">
+        <v>174.11</v>
+      </c>
+      <c r="G189">
+        <v>100</v>
+      </c>
+      <c r="H189">
+        <v>50</v>
+      </c>
+      <c r="I189">
+        <v>50</v>
+      </c>
+      <c r="J189" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>45772</v>
+      </c>
+      <c r="B190" t="s">
+        <v>440</v>
+      </c>
+      <c r="C190">
+        <v>3170.12</v>
+      </c>
+      <c r="D190" t="s">
+        <v>77</v>
+      </c>
+      <c r="E190">
+        <v>2137.9</v>
+      </c>
+      <c r="F190">
+        <v>1032.23</v>
+      </c>
+      <c r="G190">
+        <v>100</v>
+      </c>
+      <c r="H190">
+        <v>50</v>
+      </c>
+      <c r="I190">
+        <v>50</v>
+      </c>
+      <c r="J190" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>45772</v>
+      </c>
+      <c r="B191" t="s">
+        <v>476</v>
+      </c>
+      <c r="C191">
+        <v>6393.51</v>
+      </c>
+      <c r="D191" t="s">
+        <v>77</v>
+      </c>
+      <c r="E191">
+        <v>2137.9</v>
+      </c>
+      <c r="F191">
+        <v>4255.6099999999997</v>
+      </c>
+      <c r="G191">
+        <v>100</v>
+      </c>
+      <c r="H191">
+        <v>50</v>
+      </c>
+      <c r="I191">
+        <v>50</v>
+      </c>
+      <c r="J191" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>45784</v>
+      </c>
+      <c r="B192" t="s">
+        <v>194</v>
+      </c>
+      <c r="C192">
+        <v>669.27</v>
+      </c>
+      <c r="D192" t="s">
+        <v>77</v>
+      </c>
+      <c r="E192">
+        <v>2137.9</v>
+      </c>
+      <c r="F192">
+        <v>-1468.63</v>
+      </c>
+      <c r="G192">
+        <v>100</v>
+      </c>
+      <c r="H192">
+        <v>50</v>
+      </c>
+      <c r="I192">
+        <v>50</v>
+      </c>
+      <c r="J192" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>45790</v>
+      </c>
+      <c r="B193" t="s">
+        <v>14</v>
+      </c>
+      <c r="C193">
+        <v>212.47</v>
+      </c>
+      <c r="D193" t="s">
+        <v>77</v>
+      </c>
+      <c r="E193">
+        <v>2137.9</v>
+      </c>
+      <c r="F193">
+        <v>-1925.43</v>
+      </c>
+      <c r="G193">
+        <v>80.02</v>
+      </c>
+      <c r="H193">
+        <v>50</v>
+      </c>
+      <c r="I193">
+        <v>30.02</v>
+      </c>
+      <c r="J193" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>45791</v>
+      </c>
+      <c r="B194" t="s">
+        <v>369</v>
+      </c>
+      <c r="C194">
+        <v>76381.67</v>
+      </c>
+      <c r="D194" t="s">
+        <v>77</v>
+      </c>
+      <c r="E194">
+        <v>2137.9</v>
+      </c>
+      <c r="F194">
+        <v>74243.77</v>
+      </c>
+      <c r="G194">
+        <v>77.42</v>
+      </c>
+      <c r="H194">
+        <v>50</v>
+      </c>
+      <c r="I194">
+        <v>27.42</v>
+      </c>
+      <c r="J194" t="s">
+        <v>679</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D12A39F-94EF-4706-98B0-F2BE96BF56FB}">
   <dimension ref="A3:B10"/>
   <sheetViews>
@@ -37187,11 +43482,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C83A7A8-D804-46F8-BB1B-C7C10AB82CEF}">
   <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
